--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -6,16 +6,116 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Elements" r:id="rId3" sheetId="1"/>
+    <sheet name="Metadata" r:id="rId3" sheetId="1"/>
+    <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$4</definedName>
-  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="79">
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-model-physiotherapyprescription</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>0.2.0</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>draft</t>
+  </si>
+  <si>
+    <t>Experimental</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2021-09-20T13:23:12+00:00</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>HL7 Belgium</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>FHIR Version</t>
+  </si>
+  <si>
+    <t>4.0.1</t>
+  </si>
+  <si>
+    <t>Kind</t>
+  </si>
+  <si>
+    <t>logical</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Base Definition</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/Base</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Derivation</t>
+  </si>
+  <si>
+    <t>specialization</t>
+  </si>
   <si>
     <t>Path</t>
   </si>
@@ -120,9 +220,6 @@
   </si>
   <si>
     <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription</t>
   </si>
   <si>
     <t/>
@@ -283,29 +380,181 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" tabSelected="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="15.703125" customWidth="true"/>
+    <col min="2" max="2" width="80.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AI4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true">
+    <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -351,411 +600,393 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s" s="1">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="J1" t="s" s="1">
+        <v>43</v>
+      </c>
+      <c r="K1" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
         <v>7</v>
-      </c>
-      <c r="I1" t="s" s="1">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s" s="1">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s" s="1">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>24</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>28</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>32</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>33</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" hidden="true">
-      <c r="A2" t="s" s="2">
-        <v>35</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" hidden="true">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" hidden="true">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI4">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI3">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="79">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-20T13:23:12+00:00</t>
+    <t>2021-09-20T17:40:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -385,7 +385,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -473,75 +473,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>19</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>24</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B21" t="s" s="2">
         <v>33</v>
       </c>
     </row>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-20T17:40:53+00:00</t>
+    <t>2021-09-21T08:52:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-21T08:52:01+00:00</t>
+    <t>2021-09-21T15:01:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-21T15:01:56+00:00</t>
+    <t>2021-09-22T07:45:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-22T07:45:14+00:00</t>
+    <t>2021-09-22T09:12:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-22T09:12:54+00:00</t>
+    <t>2021-09-22T13:43:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-22T13:43:36+00:00</t>
+    <t>2021-09-22T15:57:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-22T15:57:27+00:00</t>
+    <t>2021-09-23T11:40:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-23T11:40:39+00:00</t>
+    <t>2021-09-23T13:45:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-23T13:45:12+00:00</t>
+    <t>2021-09-23T14:45:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-23T14:45:21+00:00</t>
+    <t>2021-09-23T15:34:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-23T15:34:19+00:00</t>
+    <t>2021-09-24T07:01:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-24T07:01:44+00:00</t>
+    <t>2021-09-24T07:40:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-24T07:40:05+00:00</t>
+    <t>2021-09-24T08:26:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-24T08:26:22+00:00</t>
+    <t>2021-09-24T11:35:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-24T11:35:02+00:00</t>
+    <t>2021-09-24T14:58:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-24T14:58:19+00:00</t>
+    <t>2021-10-06T12:45:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-06T12:45:34+00:00</t>
+    <t>2021-10-06T12:46:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-06T12:46:26+00:00</t>
+    <t>2021-10-07T14:16:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-07T14:16:54+00:00</t>
+    <t>2021-10-07T15:34:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-07T15:34:09+00:00</t>
+    <t>2021-10-08T06:35:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-08T06:35:20+00:00</t>
+    <t>2021-10-15T15:30:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-15T15:30:39+00:00</t>
+    <t>2021-10-18T11:47:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-18T11:47:25+00:00</t>
+    <t>2021-10-19T12:13:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-19T12:13:26+00:00</t>
+    <t>2021-10-19T12:28:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-19T12:28:21+00:00</t>
+    <t>2021-10-19T13:42:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-19T13:42:10+00:00</t>
+    <t>2021-10-19T15:13:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-19T15:13:29+00:00</t>
+    <t>2021-10-21T11:58:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-21T11:58:09+00:00</t>
+    <t>2021-10-29T12:52:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="81">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-29T12:52:32+00:00</t>
+    <t>2021-10-07T15:14:36+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t/>
@@ -244,10 +247,13 @@
 </t>
   </si>
   <si>
+    <t>test</t>
+  </si>
+  <si>
     <t>BePhysiotherapyPrescription.numberOfSessions</t>
   </si>
   <si>
-    <t xml:space="preserve">integer {integer}
+    <t xml:space="preserve">integer
 </t>
   </si>
   <si>
@@ -560,7 +566,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AI4"/>
+  <dimension ref="A1:AJ4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -604,6 +610,7 @@
     <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
+    <col min="36" max="36" width="24.9765625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -712,6 +719,9 @@
       <c r="AI1" t="s" s="1">
         <v>68</v>
       </c>
+      <c r="AJ1" t="s" s="1">
+        <v>69</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
@@ -719,279 +729,294 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AE2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG2" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="AF2" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG2" t="s" s="2">
-        <v>71</v>
-      </c>
       <c r="AH2" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
+        <v>70</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="K3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L3" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
+        <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="L4" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="L4" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -72,7 +72,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>Belgium</t>
   </si>
   <si>
     <t>Description</t>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="153">
   <si>
     <t>Property</t>
   </si>
@@ -102,7 +102,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Base</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-model-referralprescription</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -234,20 +234,243 @@
     <t>*</t>
   </si>
   <si>
+    <t>Logical model describing the model for the prescription referral. This draft is used in the HL7 Belgian workgroup for referral.</t>
+  </si>
+  <si>
     <t>Base</t>
   </si>
   <si>
-    <t>BePhysiotherapyPrescription.BeReferralPrescription</t>
+    <t>BePhysiotherapyPrescription.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>An identifier for the ReferralPrescription, e.g. the UHMEP identifier, once available</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.identifier</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.status</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-model-referralprescription
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
-    <t>test</t>
+    <t>Current status</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-status</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.status</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.reasonCurrentStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Reason current status</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.reasonCurrentStatus</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.authoredOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>When this prescription was created</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.authoredOn</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.prescriber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference
+</t>
+  </si>
+  <si>
+    <t>The prescribing healthcare party</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.prescriber</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.co-prescriber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Information about co prescribers</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.co-prescriber</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.co-prescriber.co-prescriber</t>
+  </si>
+  <si>
+    <t>The co-prescriber party</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.co-prescriber.co-prescriber</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.co-prescriber.co-prescriberSubstitute</t>
+  </si>
+  <si>
+    <t>NIHDI of co prescriber substitute party</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.co-prescriber.co-prescriberSubstitute</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.co-prescriber.status</t>
+  </si>
+  <si>
+    <t>Status of co prescribing status (to sign, signed or refused)</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.co-prescriber.status</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.patient</t>
+  </si>
+  <si>
+    <t>The SSIN of the person for which the referral is prescribed.</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.patient</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.originalRequest</t>
+  </si>
+  <si>
+    <t>The original request or prescription triggered this prescription</t>
+  </si>
+  <si>
+    <t>The original request or prescription that is the reason for this request - for example when a detailed request is created by a broader request.</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.originalRequest</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.reason</t>
+  </si>
+  <si>
+    <t>The problem (code or reference) that is the main reason for this prescription</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.reason</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.intendedProvider</t>
+  </si>
+  <si>
+    <t>The intended provider, i.e. who is expected to perform the procedure - a specific person or a speciality</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedProvider</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.intendedProvider.provider</t>
+  </si>
+  <si>
+    <t>A reference to the provider party (e.g. a NIHDI number for a healthcare professional, a SSIN or only a displaystring for a non professional caregiver,...)</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedProvider.provider</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.intendedProvider.discipline</t>
+  </si>
+  <si>
+    <t>The required discipline of the provider party</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedProvider.discipline</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.validityPeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Period of validity of prescription</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.validityPeriod</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.executionPeriod</t>
+  </si>
+  <si>
+    <t>When this prescription is executed, available after start of execution</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.executionPeriod</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.prescribedService</t>
+  </si>
+  <si>
+    <t>What is prescribed</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.prescribedService</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.resultReceiver</t>
+  </si>
+  <si>
+    <t>Parties that shall be informed of the results of the prescription other then the prescriber.</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.resultReceiver</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotation
+</t>
+  </si>
+  <si>
+    <t>Additional text notes about the request.</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.note</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.intent</t>
+  </si>
+  <si>
+    <t>Proposal, Prolongation, Prescription</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intent</t>
   </si>
   <si>
     <t>BePhysiotherapyPrescription.numberOfSessions</t>
@@ -566,7 +789,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ4"/>
+  <dimension ref="A1:AJ24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -575,7 +798,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="48.5625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="62.171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -585,7 +808,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="39.75" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="139.328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -599,13 +822,13 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="19.625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="39.53515625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="48.5625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="56.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
@@ -751,7 +974,9 @@
         <v>70</v>
       </c>
       <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="L2" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
@@ -801,7 +1026,7 @@
         <v>70</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>71</v>
@@ -821,7 +1046,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -829,10 +1054,10 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>70</v>
@@ -901,13 +1126,13 @@
         <v>70</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>70</v>
@@ -921,7 +1146,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -929,10 +1154,10 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>70</v>
@@ -944,13 +1169,13 @@
         <v>70</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -977,13 +1202,11 @@
         <v>70</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X4" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="X4" s="2"/>
       <c r="Y4" t="s" s="2">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="Z4" t="s" s="2">
         <v>70</v>
@@ -1001,21 +1224,2021 @@
         <v>70</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AF4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P5" s="2"/>
+      <c r="Q5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AF5" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG5" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P6" s="2"/>
+      <c r="Q6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AF6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P7" s="2"/>
+      <c r="Q7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE7" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="AG4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
+      <c r="F8" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P8" s="2"/>
+      <c r="Q8" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R8" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P9" s="2"/>
+      <c r="Q9" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R9" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S9" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T9" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U9" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V9" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W9" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X9" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AF9" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P10" s="2"/>
+      <c r="Q10" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R10" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S10" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T10" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U10" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V10" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W10" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z10" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AF10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI10" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P11" s="2"/>
+      <c r="Q11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P12" s="2"/>
+      <c r="Q12" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R12" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P13" s="2"/>
+      <c r="Q13" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R13" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R14" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P15" s="2"/>
+      <c r="Q15" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R15" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S15" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P16" s="2"/>
+      <c r="Q16" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R16" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S16" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P17" s="2"/>
+      <c r="Q17" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R17" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R18" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S18" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="Q19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P20" s="2"/>
+      <c r="Q20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="Q21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="Q22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="Q24" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R24" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>70</v>
       </c>
     </row>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="156">
   <si>
     <t>Property</t>
   </si>
@@ -240,7 +240,89 @@
     <t>Base</t>
   </si>
   <si>
-    <t>BePhysiotherapyPrescription.identifier</t>
+    <t>BePhysiotherapyPrescription.recordedDate</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>When this prescription was created</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.recordedDate</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.prescriber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference
+</t>
+  </si>
+  <si>
+    <t>The prescribing healthcare party</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.prescriber</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.co-prescriber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Information about co prescribers</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.co-prescriber</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.co-prescriber.co-prescriber</t>
+  </si>
+  <si>
+    <t>The co-prescriber party</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.co-prescriber.co-prescriber</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.co-prescriber.co-prescriberType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Type of the practitioner</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.co-prescriber.co-prescriberType</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.co-prescriber.status</t>
+  </si>
+  <si>
+    <t>Status of co prescribing status (to sign, signed or refused)</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.co-prescriber.status</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.patient</t>
+  </si>
+  <si>
+    <t>The SSIN of the person for which the referral is prescribed.</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.patient</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.prescriptionNumber</t>
   </si>
   <si>
     <t xml:space="preserve">Identifier
@@ -250,205 +332,132 @@
     <t>An identifier for the ReferralPrescription, e.g. the UHMEP identifier, once available</t>
   </si>
   <si>
-    <t>BeReferralPrescription.identifier</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.status</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
+    <t>BeReferralPrescription.prescriptionNumber</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.basedOn</t>
+  </si>
+  <si>
+    <t>The original request or prescription triggered this prescription</t>
+  </si>
+  <si>
+    <t>The original request or prescription that is the reason for this request - for example when a detailed request is created by a broader request.</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.basedOn</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.validitionPeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
 </t>
   </si>
   <si>
-    <t>Current status</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-status</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.status</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.reasonCurrentStatus</t>
+    <t>Period of validity of prescription</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.validitionPeriod</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.treatmentPeriod</t>
+  </si>
+  <si>
+    <t>When this prescription is executed, available after start of execution</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentPeriod</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.treatmentValidationEndDate</t>
+  </si>
+  <si>
+    <t>The latest moment to end this treatment</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentValidationEndDate</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.intendedProvider</t>
+  </si>
+  <si>
+    <t>The intended provider, i.e. who is expected to perform the procedure - a specific person or a speciality</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedProvider</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.intendedProvider.provider</t>
+  </si>
+  <si>
+    <t>A reference to the provider party (e.g. a NIHDI number for a healthcare professional, a SSIN or only a displaystring for a non professional caregiver,...)</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedProvider.provider</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.intendedProvider.discipline</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
+    <t>The required discipline of the provider party</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedProvider.discipline</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.serviceRequested</t>
+  </si>
+  <si>
+    <t>What is prescribed</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.serviceRequested</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.problemCode</t>
+  </si>
+  <si>
+    <t>The problem (code or reference) that is the main reason for this prescription</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.problemCode</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.resultReceiver</t>
+  </si>
+  <si>
+    <t>Parties that shall be informed of the results of the prescription other then the prescriber.</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.resultReceiver</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.status</t>
+  </si>
+  <si>
+    <t>Current status</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-status</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.status</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.statusReason</t>
+  </si>
+  <si>
     <t>Reason current status</t>
   </si>
   <si>
-    <t>BeReferralPrescription.reasonCurrentStatus</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.authoredOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>When this prescription was created</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.authoredOn</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.prescriber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference
-</t>
-  </si>
-  <si>
-    <t>The prescribing healthcare party</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.prescriber</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.co-prescriber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Information about co prescribers</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.co-prescriber</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.co-prescriber.co-prescriber</t>
-  </si>
-  <si>
-    <t>The co-prescriber party</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.co-prescriber.co-prescriber</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.co-prescriber.co-prescriberSubstitute</t>
-  </si>
-  <si>
-    <t>NIHDI of co prescriber substitute party</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.co-prescriber.co-prescriberSubstitute</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.co-prescriber.status</t>
-  </si>
-  <si>
-    <t>Status of co prescribing status (to sign, signed or refused)</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.co-prescriber.status</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.patient</t>
-  </si>
-  <si>
-    <t>The SSIN of the person for which the referral is prescribed.</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.patient</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.originalRequest</t>
-  </si>
-  <si>
-    <t>The original request or prescription triggered this prescription</t>
-  </si>
-  <si>
-    <t>The original request or prescription that is the reason for this request - for example when a detailed request is created by a broader request.</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.originalRequest</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.reason</t>
-  </si>
-  <si>
-    <t>The problem (code or reference) that is the main reason for this prescription</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.reason</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.intendedProvider</t>
-  </si>
-  <si>
-    <t>The intended provider, i.e. who is expected to perform the procedure - a specific person or a speciality</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedProvider</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.intendedProvider.provider</t>
-  </si>
-  <si>
-    <t>A reference to the provider party (e.g. a NIHDI number for a healthcare professional, a SSIN or only a displaystring for a non professional caregiver,...)</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedProvider.provider</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.intendedProvider.discipline</t>
-  </si>
-  <si>
-    <t>The required discipline of the provider party</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedProvider.discipline</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.validityPeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Period of validity of prescription</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.validityPeriod</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.executionPeriod</t>
-  </si>
-  <si>
-    <t>When this prescription is executed, available after start of execution</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.executionPeriod</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.prescribedService</t>
-  </si>
-  <si>
-    <t>What is prescribed</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.prescribedService</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.resultReceiver</t>
-  </si>
-  <si>
-    <t>Parties that shall be informed of the results of the prescription other then the prescriber.</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.resultReceiver</t>
+    <t>BeReferralPrescription.statusReason</t>
   </si>
   <si>
     <t>BePhysiotherapyPrescription.note</t>
@@ -789,7 +798,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ24"/>
+  <dimension ref="A1:AJ25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -798,7 +807,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="62.171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="57.26953125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -828,7 +837,7 @@
     <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="56.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="51.51171875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
@@ -1054,10 +1063,10 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>70</v>
@@ -1069,13 +1078,13 @@
         <v>70</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1126,13 +1135,13 @@
         <v>70</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>70</v>
@@ -1146,7 +1155,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1154,10 +1163,10 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>70</v>
@@ -1202,35 +1211,37 @@
         <v>70</v>
       </c>
       <c r="W4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE4" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="X4" s="2"/>
-      <c r="Y4" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Z4" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA4" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB4" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC4" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD4" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="AF4" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>70</v>
@@ -1244,7 +1255,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1252,10 +1263,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>70</v>
@@ -1267,13 +1278,13 @@
         <v>70</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1324,13 +1335,13 @@
         <v>70</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>70</v>
@@ -1344,7 +1355,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1352,10 +1363,10 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>70</v>
@@ -1367,13 +1378,13 @@
         <v>70</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1424,13 +1435,13 @@
         <v>70</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>70</v>
@@ -1444,7 +1455,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1452,10 +1463,10 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>70</v>
@@ -1467,13 +1478,13 @@
         <v>70</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1524,13 +1535,13 @@
         <v>70</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>70</v>
@@ -1544,7 +1555,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1555,7 +1566,7 @@
         <v>71</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>70</v>
@@ -1567,13 +1578,13 @@
         <v>70</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1624,13 +1635,13 @@
         <v>70</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>70</v>
@@ -1644,7 +1655,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1652,10 +1663,10 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>70</v>
@@ -1667,13 +1678,13 @@
         <v>70</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1724,13 +1735,13 @@
         <v>70</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>70</v>
@@ -1744,7 +1755,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1755,7 +1766,7 @@
         <v>71</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>70</v>
@@ -1767,13 +1778,13 @@
         <v>70</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1824,13 +1835,13 @@
         <v>70</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>70</v>
@@ -1844,7 +1855,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1852,10 +1863,10 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>70</v>
@@ -1870,10 +1881,10 @@
         <v>81</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1924,13 +1935,13 @@
         <v>70</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>70</v>
@@ -1944,7 +1955,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1952,10 +1963,10 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>70</v>
@@ -1967,13 +1978,13 @@
         <v>70</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2024,13 +2035,13 @@
         <v>70</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>70</v>
@@ -2044,7 +2055,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2055,7 +2066,7 @@
         <v>71</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>70</v>
@@ -2067,13 +2078,13 @@
         <v>70</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2124,13 +2135,13 @@
         <v>70</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>70</v>
@@ -2144,7 +2155,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2155,7 +2166,7 @@
         <v>71</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>70</v>
@@ -2167,13 +2178,13 @@
         <v>70</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2224,13 +2235,13 @@
         <v>70</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>70</v>
@@ -2244,7 +2255,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2267,13 +2278,13 @@
         <v>70</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2324,7 +2335,7 @@
         <v>70</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>71</v>
@@ -2344,7 +2355,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2367,13 +2378,13 @@
         <v>70</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2424,7 +2435,7 @@
         <v>70</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>71</v>
@@ -2444,7 +2455,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2452,10 +2463,10 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>70</v>
@@ -2467,13 +2478,13 @@
         <v>70</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2524,13 +2535,13 @@
         <v>70</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>70</v>
@@ -2544,7 +2555,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2552,10 +2563,10 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>70</v>
@@ -2567,13 +2578,13 @@
         <v>70</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2624,13 +2635,13 @@
         <v>70</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>70</v>
@@ -2644,7 +2655,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2655,7 +2666,7 @@
         <v>71</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>70</v>
@@ -2667,13 +2678,13 @@
         <v>70</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2724,13 +2735,13 @@
         <v>70</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>70</v>
@@ -2744,7 +2755,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2752,10 +2763,10 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>70</v>
@@ -2767,13 +2778,13 @@
         <v>70</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2824,13 +2835,13 @@
         <v>70</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>70</v>
@@ -2844,7 +2855,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2852,10 +2863,10 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>70</v>
@@ -2867,13 +2878,13 @@
         <v>70</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2900,13 +2911,11 @@
         <v>70</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="X21" s="2"/>
       <c r="Y21" t="s" s="2">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>70</v>
@@ -2927,10 +2936,10 @@
         <v>142</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>70</v>
@@ -2955,7 +2964,7 @@
         <v>71</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>70</v>
@@ -2967,13 +2976,13 @@
         <v>70</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="K22" t="s" s="2">
-        <v>145</v>
-      </c>
       <c r="L22" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3024,13 +3033,13 @@
         <v>70</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>70</v>
@@ -3044,7 +3053,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3052,10 +3061,10 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>70</v>
@@ -3067,7 +3076,7 @@
         <v>70</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>81</v>
+        <v>147</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>148</v>
@@ -3127,10 +3136,10 @@
         <v>149</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>70</v>
@@ -3152,10 +3161,10 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>70</v>
@@ -3167,13 +3176,13 @@
         <v>70</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="K24" t="s" s="2">
-        <v>152</v>
-      </c>
       <c r="L24" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3224,21 +3233,121 @@
         <v>70</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AF24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="AG24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
+      <c r="F25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P25" s="2"/>
+      <c r="Q25" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R25" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S25" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>70</v>
       </c>
     </row>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="159">
   <si>
     <t>Property</t>
   </si>
@@ -439,7 +439,7 @@
     <t>BePhysiotherapyPrescription.status</t>
   </si>
   <si>
-    <t>Current status</t>
+    <t>Status of the requisition</t>
   </si>
   <si>
     <t>required</t>
@@ -449,6 +449,15 @@
   </si>
   <si>
     <t>BeReferralPrescription.status</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.clinicalStatus</t>
+  </si>
+  <si>
+    <t>Status of the execution</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.clinicalStatus</t>
   </si>
   <si>
     <t>BePhysiotherapyPrescription.statusReason</t>
@@ -798,7 +807,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ25"/>
+  <dimension ref="A1:AJ26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2976,7 +2985,7 @@
         <v>70</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>144</v>
@@ -3076,13 +3085,13 @@
         <v>70</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K23" t="s" s="2">
-        <v>148</v>
-      </c>
       <c r="L23" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3133,7 +3142,7 @@
         <v>70</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>71</v>
@@ -3153,7 +3162,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3161,7 +3170,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>76</v>
@@ -3176,7 +3185,7 @@
         <v>70</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>151</v>
@@ -3236,7 +3245,7 @@
         <v>152</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -3261,7 +3270,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>76</v>
@@ -3276,13 +3285,13 @@
         <v>70</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="K25" t="s" s="2">
-        <v>155</v>
-      </c>
       <c r="L25" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3333,21 +3342,121 @@
         <v>70</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AF25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="AG25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
+      <c r="F26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P26" s="2"/>
+      <c r="Q26" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R26" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S26" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>70</v>
       </c>
     </row>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="162">
   <si>
     <t>Property</t>
   </si>
@@ -427,6 +427,15 @@
     <t>BeReferralPrescription.problemCode</t>
   </si>
   <si>
+    <t>BePhysiotherapyPrescription.supportingInfo</t>
+  </si>
+  <si>
+    <t>Care Set Problem</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.supportingInfo</t>
+  </si>
+  <si>
     <t>BePhysiotherapyPrescription.resultReceiver</t>
   </si>
   <si>
@@ -439,7 +448,7 @@
     <t>BePhysiotherapyPrescription.status</t>
   </si>
   <si>
-    <t>Status of the requisition</t>
+    <t>Current status</t>
   </si>
   <si>
     <t>required</t>
@@ -451,15 +460,6 @@
     <t>BeReferralPrescription.status</t>
   </si>
   <si>
-    <t>BePhysiotherapyPrescription.clinicalStatus</t>
-  </si>
-  <si>
-    <t>Status of the execution</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.clinicalStatus</t>
-  </si>
-  <si>
     <t>BePhysiotherapyPrescription.statusReason</t>
   </si>
   <si>
@@ -467,6 +467,15 @@
   </si>
   <si>
     <t>BeReferralPrescription.statusReason</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.bodySite</t>
+  </si>
+  <si>
+    <t>Anatomical place where the treatment should be executed</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.bodySite</t>
   </si>
   <si>
     <t>BePhysiotherapyPrescription.note</t>
@@ -807,7 +816,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ26"/>
+  <dimension ref="A1:AJ27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1775,7 +1784,7 @@
         <v>71</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>70</v>
@@ -1850,7 +1859,7 @@
         <v>71</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>70</v>
@@ -1875,7 +1884,7 @@
         <v>71</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>70</v>
@@ -1950,7 +1959,7 @@
         <v>71</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>70</v>
@@ -2672,10 +2681,10 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>70</v>
@@ -2747,10 +2756,10 @@
         <v>134</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>70</v>
@@ -2775,7 +2784,7 @@
         <v>71</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>70</v>
@@ -2850,7 +2859,7 @@
         <v>71</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>70</v>
@@ -2872,10 +2881,10 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>70</v>
@@ -2887,7 +2896,7 @@
         <v>70</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>139</v>
@@ -2920,35 +2929,37 @@
         <v>70</v>
       </c>
       <c r="W21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE21" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="X21" s="2"/>
-      <c r="Y21" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>142</v>
-      </c>
       <c r="AF21" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>70</v>
@@ -2962,7 +2973,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -2988,10 +2999,10 @@
         <v>92</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3018,13 +3029,11 @@
         <v>70</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="X22" s="2"/>
       <c r="Y22" t="s" s="2">
-        <v>70</v>
+        <v>144</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>70</v>
@@ -3173,7 +3182,7 @@
         <v>71</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>70</v>
@@ -3185,13 +3194,13 @@
         <v>70</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="K24" t="s" s="2">
-        <v>151</v>
-      </c>
       <c r="L24" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3242,13 +3251,13 @@
         <v>70</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>70</v>
@@ -3262,7 +3271,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3270,10 +3279,10 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>70</v>
@@ -3285,7 +3294,7 @@
         <v>70</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>154</v>
@@ -3345,10 +3354,10 @@
         <v>155</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>70</v>
@@ -3370,7 +3379,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>76</v>
@@ -3385,13 +3394,13 @@
         <v>70</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="K26" t="s" s="2">
-        <v>158</v>
-      </c>
       <c r="L26" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3442,21 +3451,121 @@
         <v>70</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AF26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="AG26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
+      <c r="F27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P27" s="2"/>
+      <c r="Q27" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R27" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>70</v>
       </c>
     </row>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-model-physiotherapyprescription</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-model-physiotherapyprescription</t>
   </si>
   <si>
     <t>Version</t>
@@ -102,7 +102,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-model-referralprescription</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-model-referralprescription</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="163">
   <si>
     <t>Property</t>
   </si>
@@ -439,7 +439,11 @@
     <t>BePhysiotherapyPrescription.resultReceiver</t>
   </si>
   <si>
-    <t>Parties that shall be informed of the results of the prescription other then the prescriber.</t>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>True if the prescriber wants feedback. Other caregivers can be mentioned in the note</t>
   </si>
   <si>
     <t>BeReferralPrescription.resultReceiver</t>
@@ -2884,7 +2888,7 @@
         <v>71</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>70</v>
@@ -2896,13 +2900,13 @@
         <v>70</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2953,13 +2957,13 @@
         <v>70</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>70</v>
@@ -2973,7 +2977,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -2999,10 +3003,10 @@
         <v>92</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3029,11 +3033,11 @@
         <v>70</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="X22" s="2"/>
       <c r="Y22" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>70</v>
@@ -3051,7 +3055,7 @@
         <v>70</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>71</v>
@@ -3071,7 +3075,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3097,10 +3101,10 @@
         <v>126</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3151,7 +3155,7 @@
         <v>70</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>71</v>
@@ -3171,7 +3175,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3197,10 +3201,10 @@
         <v>126</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3251,7 +3255,7 @@
         <v>70</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>71</v>
@@ -3271,7 +3275,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3294,13 +3298,13 @@
         <v>70</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3351,7 +3355,7 @@
         <v>70</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>71</v>
@@ -3371,7 +3375,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3397,10 +3401,10 @@
         <v>92</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3451,7 +3455,7 @@
         <v>70</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>76</v>
@@ -3471,7 +3475,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3494,13 +3498,13 @@
         <v>70</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3551,7 +3555,7 @@
         <v>70</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>71</v>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="190">
   <si>
     <t>Property</t>
   </si>
@@ -335,6 +335,37 @@
     <t>BeReferralPrescription.prescriptionNumber</t>
   </si>
   <si>
+    <t>BePhysiotherapyPrescription.ppsNumber</t>
+  </si>
+  <si>
+    <t>An identifier for the Prescription Proposal Support</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.ppsNumber</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.ppsRejectionReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotation
+</t>
+  </si>
+  <si>
+    <t>Reason for not following the PPS suggestion</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.ppsRejectionReason</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.requisition</t>
+  </si>
+  <si>
+    <t>An identifier for the bundle this prescription belongs to. The type of bundle can be indicated in the type of the identifier</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.requisition</t>
+  </si>
+  <si>
     <t>BePhysiotherapyPrescription.basedOn</t>
   </si>
   <si>
@@ -378,25 +409,25 @@
     <t>BeReferralPrescription.treatmentValidationEndDate</t>
   </si>
   <si>
-    <t>BePhysiotherapyPrescription.intendedProvider</t>
+    <t>BePhysiotherapyPrescription.intendedPerformer</t>
   </si>
   <si>
     <t>The intended provider, i.e. who is expected to perform the procedure - a specific person or a speciality</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedProvider</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.intendedProvider.provider</t>
+    <t>BeReferralPrescription.intendedPerformer</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.intendedPerformer.performer</t>
   </si>
   <si>
     <t>A reference to the provider party (e.g. a NIHDI number for a healthcare professional, a SSIN or only a displaystring for a non professional caregiver,...)</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedProvider.provider</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.intendedProvider.discipline</t>
+    <t>BeReferralPrescription.intendedPerformer.performer</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.intendedPerformer.discipline</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
@@ -406,7 +437,25 @@
     <t>The required discipline of the provider party</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedProvider.discipline</t>
+    <t>BeReferralPrescription.intendedPerformer.discipline</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.intendedPerformer.period</t>
+  </si>
+  <si>
+    <t>Start and enddate for the particular provider</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.period</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.toBePerformedAfter</t>
+  </si>
+  <si>
+    <t>The current prescription should be performed after this one</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.toBePerformedAfter</t>
   </si>
   <si>
     <t>BePhysiotherapyPrescription.serviceRequested</t>
@@ -473,20 +522,52 @@
     <t>BeReferralPrescription.statusReason</t>
   </si>
   <si>
-    <t>BePhysiotherapyPrescription.bodySite</t>
+    <t>BePhysiotherapyPrescription.treatmentStatus</t>
+  </si>
+  <si>
+    <t>Status of the treatment</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentStatus</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.treatmentStatusReason</t>
+  </si>
+  <si>
+    <t>Reason treatment status</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentStatusReason</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.bodyLocation</t>
+  </si>
+  <si>
+    <t>Place where the treatment should be executed</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.bodyLocation</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.bodyLocation.bodySite</t>
   </si>
   <si>
     <t>Anatomical place where the treatment should be executed</t>
   </si>
   <si>
-    <t>BeReferralPrescription.bodySite</t>
+    <t>BeReferralPrescription.bodyLocation.bodySite</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.bodyLocation.bodyLaterality</t>
+  </si>
+  <si>
+    <t>Side of the body</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.bodyLocation.bodyLaterality</t>
   </si>
   <si>
     <t>BePhysiotherapyPrescription.note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annotation
-</t>
   </si>
   <si>
     <t>Additional text notes about the request.</t>
@@ -820,7 +901,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ27"/>
+  <dimension ref="A1:AJ36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1888,7 +1969,7 @@
         <v>71</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>70</v>
@@ -1900,13 +1981,13 @@
         <v>70</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>106</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1957,13 +2038,13 @@
         <v>70</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>70</v>
@@ -1977,7 +2058,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1985,7 +2066,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>76</v>
@@ -2000,13 +2081,13 @@
         <v>70</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="K12" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="L12" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2057,10 +2138,10 @@
         <v>70</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -2077,7 +2158,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2100,13 +2181,13 @@
         <v>70</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2157,7 +2238,7 @@
         <v>70</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>71</v>
@@ -2177,7 +2258,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2188,7 +2269,7 @@
         <v>71</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>70</v>
@@ -2200,10 +2281,10 @@
         <v>70</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>117</v>
@@ -2263,7 +2344,7 @@
         <v>71</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>70</v>
@@ -2285,10 +2366,10 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>70</v>
@@ -2300,13 +2381,13 @@
         <v>70</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2357,13 +2438,13 @@
         <v>70</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>70</v>
@@ -2377,7 +2458,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2388,7 +2469,7 @@
         <v>71</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>70</v>
@@ -2400,13 +2481,13 @@
         <v>70</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2457,13 +2538,13 @@
         <v>70</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>70</v>
@@ -2477,7 +2558,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2485,7 +2566,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>76</v>
@@ -2500,7 +2581,7 @@
         <v>70</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>127</v>
@@ -2560,7 +2641,7 @@
         <v>128</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
@@ -2585,10 +2666,10 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>70</v>
@@ -2600,7 +2681,7 @@
         <v>70</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>130</v>
@@ -2660,10 +2741,10 @@
         <v>131</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>70</v>
@@ -2685,10 +2766,10 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>70</v>
@@ -2760,10 +2841,10 @@
         <v>134</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>70</v>
@@ -2785,7 +2866,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>76</v>
@@ -2800,13 +2881,13 @@
         <v>70</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2857,10 +2938,10 @@
         <v>70</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
@@ -2877,7 +2958,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2885,7 +2966,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>76</v>
@@ -2900,7 +2981,7 @@
         <v>70</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>140</v>
@@ -2960,7 +3041,7 @@
         <v>141</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
@@ -3000,7 +3081,7 @@
         <v>70</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>143</v>
@@ -3033,29 +3114,31 @@
         <v>70</v>
       </c>
       <c r="W22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE22" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="X22" s="2"/>
-      <c r="Y22" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>71</v>
@@ -3075,7 +3158,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3083,7 +3166,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>76</v>
@@ -3098,13 +3181,13 @@
         <v>70</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3155,10 +3238,10 @@
         <v>70</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -3175,7 +3258,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3183,10 +3266,10 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>70</v>
@@ -3198,13 +3281,13 @@
         <v>70</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3255,13 +3338,13 @@
         <v>70</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>70</v>
@@ -3275,7 +3358,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3286,7 +3369,7 @@
         <v>71</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>70</v>
@@ -3298,13 +3381,13 @@
         <v>70</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3355,13 +3438,13 @@
         <v>70</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>70</v>
@@ -3375,7 +3458,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3383,7 +3466,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>76</v>
@@ -3398,13 +3481,13 @@
         <v>70</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>92</v>
+        <v>155</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3455,10 +3538,10 @@
         <v>70</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -3475,7 +3558,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3498,13 +3581,13 @@
         <v>70</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3531,13 +3614,11 @@
         <v>70</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="X27" s="2"/>
       <c r="Y27" t="s" s="2">
-        <v>70</v>
+        <v>161</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>70</v>
@@ -3555,7 +3636,7 @@
         <v>70</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>71</v>
@@ -3570,6 +3651,906 @@
         <v>70</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P28" s="2"/>
+      <c r="Q28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="Q30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="Q31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>70</v>
       </c>
     </row>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -344,7 +344,7 @@
     <t>BeReferralPrescription.ppsNumber</t>
   </si>
   <si>
-    <t>BePhysiotherapyPrescription.ppsRejectionReason</t>
+    <t>BePhysiotherapyPrescription.ppsDenialReason</t>
   </si>
   <si>
     <t xml:space="preserve">Annotation
@@ -354,7 +354,7 @@
     <t>Reason for not following the PPS suggestion</t>
   </si>
   <si>
-    <t>BeReferralPrescription.ppsRejectionReason</t>
+    <t>BeReferralPrescription.ppsDenialReason</t>
   </si>
   <si>
     <t>BePhysiotherapyPrescription.requisition</t>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="193">
   <si>
     <t>Property</t>
   </si>
@@ -447,6 +447,15 @@
   </si>
   <si>
     <t>BeReferralPrescription.intendedPerformer.period</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.intendedPerformer.organization</t>
+  </si>
+  <si>
+    <t>Reference to an organization that will add the performer</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.organization</t>
   </si>
   <si>
     <t>BePhysiotherapyPrescription.toBePerformedAfter</t>
@@ -901,7 +910,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ36"/>
+  <dimension ref="A1:AJ37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -910,7 +919,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="57.26953125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="57.296875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -940,7 +949,7 @@
     <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="51.51171875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="51.5390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
@@ -3166,7 +3175,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>76</v>
@@ -3181,7 +3190,7 @@
         <v>70</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>146</v>
@@ -3241,7 +3250,7 @@
         <v>147</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -3281,7 +3290,7 @@
         <v>70</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>149</v>
@@ -3366,7 +3375,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>76</v>
@@ -3441,7 +3450,7 @@
         <v>153</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -3481,13 +3490,13 @@
         <v>70</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="K26" t="s" s="2">
-        <v>156</v>
-      </c>
       <c r="L26" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3538,7 +3547,7 @@
         <v>70</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>71</v>
@@ -3558,7 +3567,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3581,7 +3590,7 @@
         <v>70</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>159</v>
@@ -3614,29 +3623,31 @@
         <v>70</v>
       </c>
       <c r="W27" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="X27" s="2"/>
-      <c r="Y27" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>71</v>
@@ -3656,7 +3667,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3679,13 +3690,13 @@
         <v>70</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3712,13 +3723,11 @@
         <v>70</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="X28" s="2"/>
       <c r="Y28" t="s" s="2">
-        <v>70</v>
+        <v>164</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>70</v>
@@ -3967,7 +3976,7 @@
         <v>71</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>70</v>
@@ -3979,7 +3988,7 @@
         <v>70</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>173</v>
@@ -4042,7 +4051,7 @@
         <v>71</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>70</v>
@@ -4067,7 +4076,7 @@
         <v>71</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>70</v>
@@ -4079,7 +4088,7 @@
         <v>70</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>176</v>
@@ -4142,7 +4151,7 @@
         <v>71</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>70</v>
@@ -4267,7 +4276,7 @@
         <v>71</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>70</v>
@@ -4279,7 +4288,7 @@
         <v>70</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>182</v>
@@ -4342,7 +4351,7 @@
         <v>71</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>70</v>
@@ -4364,10 +4373,10 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>70</v>
@@ -4379,7 +4388,7 @@
         <v>70</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>185</v>
@@ -4439,10 +4448,10 @@
         <v>186</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>70</v>
@@ -4464,7 +4473,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>76</v>
@@ -4479,13 +4488,13 @@
         <v>70</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="K36" t="s" s="2">
-        <v>189</v>
-      </c>
       <c r="L36" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4536,10 +4545,10 @@
         <v>70</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -4551,6 +4560,106 @@
         <v>70</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>70</v>
       </c>
     </row>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -344,7 +344,7 @@
     <t>BeReferralPrescription.ppsNumber</t>
   </si>
   <si>
-    <t>BePhysiotherapyPrescription.ppsDenialReason</t>
+    <t>BePhysiotherapyPrescription.ppsRejectionReason</t>
   </si>
   <si>
     <t xml:space="preserve">Annotation
@@ -354,7 +354,7 @@
     <t>Reason for not following the PPS suggestion</t>
   </si>
   <si>
-    <t>BeReferralPrescription.ppsDenialReason</t>
+    <t>BeReferralPrescription.ppsRejectionReason</t>
   </si>
   <si>
     <t>BePhysiotherapyPrescription.requisition</t>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="196">
   <si>
     <t>Property</t>
   </si>
@@ -256,11 +256,20 @@
     <t>BeReferralPrescription.recordedDate</t>
   </si>
   <si>
-    <t>BePhysiotherapyPrescription.prescriber</t>
+    <t>BePhysiotherapyPrescription.recorder</t>
   </si>
   <si>
     <t xml:space="preserve">Reference
 </t>
+  </si>
+  <si>
+    <t>The person who is responsable for the content, not necessarily the person who entered the content. This is either the prescriber, a co-prescriber or a performer</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.recorder</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.prescriber</t>
   </si>
   <si>
     <t>The prescribing healthcare party</t>
@@ -910,7 +919,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ37"/>
+  <dimension ref="A1:AJ38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -929,7 +938,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="139.328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="148.01953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1375,10 +1384,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>70</v>
@@ -1390,13 +1399,13 @@
         <v>70</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="K5" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="L5" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1447,13 +1456,13 @@
         <v>70</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>70</v>
@@ -1467,7 +1476,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1478,7 +1487,7 @@
         <v>71</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>70</v>
@@ -1490,7 +1499,7 @@
         <v>70</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>89</v>
@@ -1553,7 +1562,7 @@
         <v>71</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>70</v>
@@ -1590,13 +1599,13 @@
         <v>70</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="K7" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="L7" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1647,7 +1656,7 @@
         <v>70</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>71</v>
@@ -1667,7 +1676,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1690,7 +1699,7 @@
         <v>70</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K8" t="s" s="2">
         <v>96</v>
@@ -1775,7 +1784,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>76</v>
@@ -1790,7 +1799,7 @@
         <v>70</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="K9" t="s" s="2">
         <v>99</v>
@@ -1850,7 +1859,7 @@
         <v>100</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>76</v>
@@ -1875,7 +1884,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>76</v>
@@ -1890,13 +1899,13 @@
         <v>70</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="K10" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="L10" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1947,10 +1956,10 @@
         <v>70</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -1967,7 +1976,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1990,7 +1999,7 @@
         <v>70</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>106</v>
@@ -2090,13 +2099,13 @@
         <v>70</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K12" t="s" s="2">
-        <v>110</v>
-      </c>
       <c r="L12" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2147,7 +2156,7 @@
         <v>70</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>71</v>
@@ -2167,7 +2176,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2190,7 +2199,7 @@
         <v>70</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>113</v>
@@ -2278,7 +2287,7 @@
         <v>71</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>70</v>
@@ -2290,13 +2299,13 @@
         <v>70</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>116</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2347,13 +2356,13 @@
         <v>70</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>70</v>
@@ -2367,7 +2376,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2375,10 +2384,10 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>70</v>
@@ -2390,13 +2399,13 @@
         <v>70</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="K15" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2447,13 +2456,13 @@
         <v>70</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>70</v>
@@ -2467,7 +2476,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2475,7 +2484,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>76</v>
@@ -2490,7 +2499,7 @@
         <v>70</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>124</v>
@@ -2550,7 +2559,7 @@
         <v>125</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
@@ -2590,7 +2599,7 @@
         <v>70</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>127</v>
@@ -2678,7 +2687,7 @@
         <v>71</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>70</v>
@@ -2690,7 +2699,7 @@
         <v>70</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>130</v>
@@ -2753,7 +2762,7 @@
         <v>71</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>70</v>
@@ -2790,7 +2799,7 @@
         <v>70</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>133</v>
@@ -2875,10 +2884,10 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>70</v>
@@ -2890,13 +2899,13 @@
         <v>70</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="K20" t="s" s="2">
-        <v>137</v>
-      </c>
       <c r="L20" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2947,13 +2956,13 @@
         <v>70</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>70</v>
@@ -2967,7 +2976,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2990,7 +2999,7 @@
         <v>70</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>140</v>
@@ -3075,7 +3084,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>76</v>
@@ -3090,7 +3099,7 @@
         <v>70</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>143</v>
@@ -3150,7 +3159,7 @@
         <v>144</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
@@ -3275,7 +3284,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>76</v>
@@ -3290,7 +3299,7 @@
         <v>70</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>149</v>
@@ -3350,7 +3359,7 @@
         <v>150</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -3390,7 +3399,7 @@
         <v>70</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>152</v>
@@ -3475,7 +3484,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>76</v>
@@ -3550,7 +3559,7 @@
         <v>156</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -3590,13 +3599,13 @@
         <v>70</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="K27" t="s" s="2">
-        <v>159</v>
-      </c>
       <c r="L27" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3647,7 +3656,7 @@
         <v>70</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>71</v>
@@ -3667,7 +3676,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3690,7 +3699,7 @@
         <v>70</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>162</v>
@@ -3723,29 +3732,31 @@
         <v>70</v>
       </c>
       <c r="W28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE28" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="X28" s="2"/>
-      <c r="Y28" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>71</v>
@@ -3765,7 +3776,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3788,13 +3799,13 @@
         <v>70</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3821,13 +3832,11 @@
         <v>70</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="X29" s="2"/>
       <c r="Y29" t="s" s="2">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>70</v>
@@ -3888,7 +3897,7 @@
         <v>70</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>170</v>
@@ -3988,7 +3997,7 @@
         <v>70</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>173</v>
@@ -4076,7 +4085,7 @@
         <v>71</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>70</v>
@@ -4088,7 +4097,7 @@
         <v>70</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>176</v>
@@ -4151,7 +4160,7 @@
         <v>71</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>70</v>
@@ -4176,7 +4185,7 @@
         <v>71</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>70</v>
@@ -4188,7 +4197,7 @@
         <v>70</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>179</v>
@@ -4251,7 +4260,7 @@
         <v>71</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>70</v>
@@ -4288,7 +4297,7 @@
         <v>70</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>182</v>
@@ -4376,7 +4385,7 @@
         <v>71</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>70</v>
@@ -4388,7 +4397,7 @@
         <v>70</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>185</v>
@@ -4451,7 +4460,7 @@
         <v>71</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>70</v>
@@ -4473,10 +4482,10 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>70</v>
@@ -4488,7 +4497,7 @@
         <v>70</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>188</v>
@@ -4548,10 +4557,10 @@
         <v>189</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>70</v>
@@ -4573,7 +4582,7 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>76</v>
@@ -4588,13 +4597,13 @@
         <v>70</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="K37" t="s" s="2">
-        <v>192</v>
-      </c>
       <c r="L37" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -4645,10 +4654,10 @@
         <v>70</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -4660,6 +4669,106 @@
         <v>70</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
         <v>70</v>
       </c>
     </row>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="199">
   <si>
     <t>Property</t>
   </si>
@@ -416,6 +416,15 @@
   </si>
   <si>
     <t>BeReferralPrescription.treatmentValidationEndDate</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.creationEndDate</t>
+  </si>
+  <si>
+    <t>The prescription must have left the draft status before</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.creationEndDate</t>
   </si>
   <si>
     <t>BePhysiotherapyPrescription.intendedPerformer</t>
@@ -919,7 +928,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ38"/>
+  <dimension ref="A1:AJ39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2787,7 +2796,7 @@
         <v>71</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>70</v>
@@ -2799,7 +2808,7 @@
         <v>70</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>133</v>
@@ -2862,7 +2871,7 @@
         <v>71</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>70</v>
@@ -2899,7 +2908,7 @@
         <v>70</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>136</v>
@@ -2984,10 +2993,10 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>70</v>
@@ -2999,13 +3008,13 @@
         <v>70</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="K21" t="s" s="2">
-        <v>140</v>
-      </c>
       <c r="L21" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3056,13 +3065,13 @@
         <v>70</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>70</v>
@@ -3076,7 +3085,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3099,7 +3108,7 @@
         <v>70</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>143</v>
@@ -3184,7 +3193,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>76</v>
@@ -3199,7 +3208,7 @@
         <v>70</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>146</v>
@@ -3259,7 +3268,7 @@
         <v>147</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -3384,7 +3393,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>76</v>
@@ -3399,7 +3408,7 @@
         <v>70</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>152</v>
@@ -3459,7 +3468,7 @@
         <v>153</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -3499,7 +3508,7 @@
         <v>70</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>155</v>
@@ -3584,7 +3593,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>76</v>
@@ -3659,7 +3668,7 @@
         <v>159</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -3699,13 +3708,13 @@
         <v>70</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="K28" t="s" s="2">
-        <v>162</v>
-      </c>
       <c r="L28" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3756,7 +3765,7 @@
         <v>70</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>71</v>
@@ -3776,7 +3785,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3799,7 +3808,7 @@
         <v>70</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>95</v>
+        <v>164</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>165</v>
@@ -3832,29 +3841,31 @@
         <v>70</v>
       </c>
       <c r="W29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE29" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="X29" s="2"/>
-      <c r="Y29" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>71</v>
@@ -3874,7 +3885,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -3897,13 +3908,13 @@
         <v>70</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -3930,13 +3941,11 @@
         <v>70</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="X30" s="2"/>
       <c r="Y30" t="s" s="2">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>70</v>
@@ -3997,7 +4006,7 @@
         <v>70</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>173</v>
@@ -4097,7 +4106,7 @@
         <v>70</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>176</v>
@@ -4185,7 +4194,7 @@
         <v>71</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>70</v>
@@ -4197,7 +4206,7 @@
         <v>70</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>179</v>
@@ -4260,7 +4269,7 @@
         <v>71</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>70</v>
@@ -4285,7 +4294,7 @@
         <v>71</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>70</v>
@@ -4297,7 +4306,7 @@
         <v>70</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>139</v>
+        <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>182</v>
@@ -4360,7 +4369,7 @@
         <v>71</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>70</v>
@@ -4397,7 +4406,7 @@
         <v>70</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>185</v>
@@ -4485,7 +4494,7 @@
         <v>71</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>70</v>
@@ -4497,7 +4506,7 @@
         <v>70</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>188</v>
@@ -4560,7 +4569,7 @@
         <v>71</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>70</v>
@@ -4582,10 +4591,10 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>70</v>
@@ -4597,7 +4606,7 @@
         <v>70</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>191</v>
@@ -4657,10 +4666,10 @@
         <v>192</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>70</v>
@@ -4682,7 +4691,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>76</v>
@@ -4697,13 +4706,13 @@
         <v>70</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="K38" t="s" s="2">
-        <v>195</v>
-      </c>
       <c r="L38" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -4754,10 +4763,10 @@
         <v>70</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -4769,6 +4778,106 @@
         <v>70</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>70</v>
       </c>
     </row>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="203">
   <si>
     <t>Property</t>
   </si>
@@ -369,10 +369,27 @@
     <t>BePhysiotherapyPrescription.requisition</t>
   </si>
   <si>
-    <t>An identifier for the bundle this prescription belongs to. The type of bundle can be indicated in the type of the identifier</t>
+    <t xml:space="preserve">positiveInt
+</t>
+  </si>
+  <si>
+    <t>An identifier for the bundle this prescription belongs to.</t>
   </si>
   <si>
     <t>BeReferralPrescription.requisition</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.requistionType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>The type of bundle can be indicated in the type of the identifier</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.requistionType</t>
   </si>
   <si>
     <t>BePhysiotherapyPrescription.basedOn</t>
@@ -446,10 +463,6 @@
   </si>
   <si>
     <t>BePhysiotherapyPrescription.intendedPerformer.discipline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
   </si>
   <si>
     <t>The required discipline of the provider party</t>
@@ -928,7 +941,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ39"/>
+  <dimension ref="A1:AJ40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2308,14 +2321,12 @@
         <v>70</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>116</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2365,7 +2376,7 @@
         <v>70</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>71</v>
@@ -2385,7 +2396,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2396,7 +2407,7 @@
         <v>71</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>70</v>
@@ -2408,14 +2419,12 @@
         <v>70</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>120</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2465,13 +2474,13 @@
         <v>70</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>70</v>
@@ -2485,7 +2494,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2493,10 +2502,10 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>70</v>
@@ -2508,13 +2517,13 @@
         <v>70</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>124</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2565,13 +2574,13 @@
         <v>70</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>70</v>
@@ -2585,7 +2594,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2593,7 +2602,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>76</v>
@@ -2608,13 +2617,13 @@
         <v>70</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2665,10 +2674,10 @@
         <v>70</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
@@ -2685,7 +2694,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2708,13 +2717,13 @@
         <v>70</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2765,7 +2774,7 @@
         <v>70</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>71</v>
@@ -2785,7 +2794,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2811,10 +2820,10 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2865,7 +2874,7 @@
         <v>70</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>71</v>
@@ -2885,7 +2894,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2896,7 +2905,7 @@
         <v>71</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>70</v>
@@ -2908,13 +2917,13 @@
         <v>70</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2965,13 +2974,13 @@
         <v>70</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>70</v>
@@ -2985,7 +2994,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3008,13 +3017,13 @@
         <v>70</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3065,7 +3074,7 @@
         <v>70</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>71</v>
@@ -3085,7 +3094,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3093,10 +3102,10 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>70</v>
@@ -3108,13 +3117,13 @@
         <v>70</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3165,13 +3174,13 @@
         <v>70</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>70</v>
@@ -3185,7 +3194,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3208,13 +3217,13 @@
         <v>70</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3265,7 +3274,7 @@
         <v>70</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>76</v>
@@ -3285,7 +3294,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3293,7 +3302,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>76</v>
@@ -3308,13 +3317,13 @@
         <v>70</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3365,10 +3374,10 @@
         <v>70</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -3385,7 +3394,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3411,10 +3420,10 @@
         <v>81</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3465,7 +3474,7 @@
         <v>70</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>71</v>
@@ -3485,7 +3494,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3493,7 +3502,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>76</v>
@@ -3508,13 +3517,13 @@
         <v>70</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3565,10 +3574,10 @@
         <v>70</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -3585,7 +3594,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3608,13 +3617,13 @@
         <v>70</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3665,7 +3674,7 @@
         <v>70</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>76</v>
@@ -3685,7 +3694,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3693,7 +3702,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>76</v>
@@ -3711,10 +3720,10 @@
         <v>81</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3765,10 +3774,10 @@
         <v>70</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -3785,7 +3794,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3808,7 +3817,7 @@
         <v>70</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>165</v>
@@ -3908,13 +3917,13 @@
         <v>70</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -3941,29 +3950,31 @@
         <v>70</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="X30" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="Y30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE30" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>71</v>
@@ -3983,7 +3994,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4006,13 +4017,13 @@
         <v>70</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4039,13 +4050,11 @@
         <v>70</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="X31" s="2"/>
       <c r="Y31" t="s" s="2">
-        <v>70</v>
+        <v>174</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>70</v>
@@ -4063,7 +4072,7 @@
         <v>70</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>71</v>
@@ -4083,7 +4092,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4106,13 +4115,13 @@
         <v>70</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4163,7 +4172,7 @@
         <v>70</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>71</v>
@@ -4183,7 +4192,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4206,13 +4215,13 @@
         <v>70</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4263,7 +4272,7 @@
         <v>70</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>71</v>
@@ -4283,7 +4292,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4294,7 +4303,7 @@
         <v>71</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>70</v>
@@ -4306,13 +4315,13 @@
         <v>70</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4363,13 +4372,13 @@
         <v>70</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>70</v>
@@ -4383,7 +4392,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4394,7 +4403,7 @@
         <v>71</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>70</v>
@@ -4406,13 +4415,13 @@
         <v>70</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4463,13 +4472,13 @@
         <v>70</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>70</v>
@@ -4483,7 +4492,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4506,13 +4515,13 @@
         <v>70</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4563,7 +4572,7 @@
         <v>70</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>71</v>
@@ -4583,7 +4592,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4594,7 +4603,7 @@
         <v>71</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>70</v>
@@ -4606,13 +4615,13 @@
         <v>70</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -4663,13 +4672,13 @@
         <v>70</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>70</v>
@@ -4683,7 +4692,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -4691,10 +4700,10 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>70</v>
@@ -4706,13 +4715,13 @@
         <v>70</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -4763,13 +4772,13 @@
         <v>70</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>70</v>
@@ -4783,7 +4792,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -4791,7 +4800,7 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>76</v>
@@ -4806,7 +4815,7 @@
         <v>70</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>197</v>
+        <v>95</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>198</v>
@@ -4863,10 +4872,10 @@
         <v>70</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -4878,6 +4887,106 @@
         <v>70</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
         <v>70</v>
       </c>
     </row>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -344,26 +344,26 @@
     <t>BeReferralPrescription.prescriptionNumber</t>
   </si>
   <si>
-    <t>BePhysiotherapyPrescription.ppsNumber</t>
-  </si>
-  <si>
-    <t>An identifier for the Prescription Proposal Support</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.ppsNumber</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.ppsRejectionReason</t>
+    <t>BePhysiotherapyPrescription.pssNumber</t>
+  </si>
+  <si>
+    <t>An identifier for the Prescription Search Support</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.pssNumber</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.pssRejectionReason</t>
   </si>
   <si>
     <t xml:space="preserve">Annotation
 </t>
   </si>
   <si>
-    <t>Reason for not following the PPS suggestion</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.ppsRejectionReason</t>
+    <t>Reason for not following the PSS suggestion</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.pssRejectionReason</t>
   </si>
   <si>
     <t>BePhysiotherapyPrescription.requisition</t>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -950,42 +950,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="57.296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="57.30078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="148.01953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="148.0234375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="39.53515625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="51.5390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="51.54296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.9765625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1706,7 +1706,7 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>76</v>
@@ -1781,7 +1781,7 @@
         <v>97</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -2006,7 +2006,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>76</v>
@@ -2081,7 +2081,7 @@
         <v>107</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -3002,7 +3002,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>72</v>
@@ -3077,7 +3077,7 @@
         <v>142</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>72</v>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -3105,7 +3105,7 @@
         <v>71</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>70</v>
@@ -3180,7 +3180,7 @@
         <v>71</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>70</v>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -3302,7 +3302,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>76</v>
@@ -3377,7 +3377,7 @@
         <v>151</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="163">
   <si>
     <t>Property</t>
   </si>
@@ -256,22 +256,13 @@
     <t>BeReferralPrescription.recordedDate</t>
   </si>
   <si>
-    <t>BePhysiotherapyPrescription.recorder</t>
+    <t>BePhysiotherapyPrescription.prescriber</t>
   </si>
   <si>
     <t xml:space="preserve">Reference
 </t>
   </si>
   <si>
-    <t>The person who is responsable for the content, not necessarily the person who entered the content. This is either the prescriber, a co-prescriber or a performer</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.recorder</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.prescriber</t>
-  </si>
-  <si>
     <t>The prescribing healthcare party</t>
   </si>
   <si>
@@ -344,270 +335,158 @@
     <t>BeReferralPrescription.prescriptionNumber</t>
   </si>
   <si>
-    <t>BePhysiotherapyPrescription.pssNumber</t>
-  </si>
-  <si>
-    <t>An identifier for the Prescription Search Support</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.pssNumber</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.pssRejectionReason</t>
+    <t>BePhysiotherapyPrescription.basedOn</t>
+  </si>
+  <si>
+    <t>The original request or prescription triggered this prescription</t>
+  </si>
+  <si>
+    <t>The original request or prescription that is the reason for this request - for example when a detailed request is created by a broader request.</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.basedOn</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.validitionPeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Period of validity of prescription</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.validitionPeriod</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.treatmentPeriod</t>
+  </si>
+  <si>
+    <t>When this prescription is executed, available after start of execution</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentPeriod</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.treatmentValidationEndDate</t>
+  </si>
+  <si>
+    <t>The latest moment to end this treatment</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentValidationEndDate</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.intendedProvider</t>
+  </si>
+  <si>
+    <t>The intended provider, i.e. who is expected to perform the procedure - a specific person or a speciality</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedProvider</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.intendedProvider.provider</t>
+  </si>
+  <si>
+    <t>A reference to the provider party (e.g. a NIHDI number for a healthcare professional, a SSIN or only a displaystring for a non professional caregiver,...)</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedProvider.provider</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.intendedProvider.discipline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>The required discipline of the provider party</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedProvider.discipline</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.serviceRequested</t>
+  </si>
+  <si>
+    <t>What is prescribed</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.serviceRequested</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.problemCode</t>
+  </si>
+  <si>
+    <t>The problem (code or reference) that is the main reason for this prescription</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.problemCode</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.supportingInfo</t>
+  </si>
+  <si>
+    <t>Care Set Problem</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.supportingInfo</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.resultReceiver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>True if the prescriber wants feedback. Other caregivers can be mentioned in the note</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.resultReceiver</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.status</t>
+  </si>
+  <si>
+    <t>Current status</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-status</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.status</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.statusReason</t>
+  </si>
+  <si>
+    <t>Reason current status</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.statusReason</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.bodySite</t>
+  </si>
+  <si>
+    <t>Anatomical place where the treatment should be executed</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.bodySite</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.note</t>
   </si>
   <si>
     <t xml:space="preserve">Annotation
 </t>
-  </si>
-  <si>
-    <t>Reason for not following the PSS suggestion</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.pssRejectionReason</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.requisition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positiveInt
-</t>
-  </si>
-  <si>
-    <t>An identifier for the bundle this prescription belongs to.</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.requisition</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.requistionType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>The type of bundle can be indicated in the type of the identifier</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.requistionType</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.basedOn</t>
-  </si>
-  <si>
-    <t>The original request or prescription triggered this prescription</t>
-  </si>
-  <si>
-    <t>The original request or prescription that is the reason for this request - for example when a detailed request is created by a broader request.</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.basedOn</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.validitionPeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Period of validity of prescription</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.validitionPeriod</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.treatmentPeriod</t>
-  </si>
-  <si>
-    <t>When this prescription is executed, available after start of execution</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.treatmentPeriod</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.treatmentValidationEndDate</t>
-  </si>
-  <si>
-    <t>The latest moment to end this treatment</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.treatmentValidationEndDate</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.creationEndDate</t>
-  </si>
-  <si>
-    <t>The prescription must have left the draft status before</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.creationEndDate</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.intendedPerformer</t>
-  </si>
-  <si>
-    <t>The intended provider, i.e. who is expected to perform the procedure - a specific person or a speciality</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.intendedPerformer.performer</t>
-  </si>
-  <si>
-    <t>A reference to the provider party (e.g. a NIHDI number for a healthcare professional, a SSIN or only a displaystring for a non professional caregiver,...)</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer.performer</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.intendedPerformer.discipline</t>
-  </si>
-  <si>
-    <t>The required discipline of the provider party</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer.discipline</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.intendedPerformer.period</t>
-  </si>
-  <si>
-    <t>Start and enddate for the particular provider</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer.period</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.intendedPerformer.organization</t>
-  </si>
-  <si>
-    <t>Reference to an organization that will add the performer</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer.organization</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.toBePerformedAfter</t>
-  </si>
-  <si>
-    <t>The current prescription should be performed after this one</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.toBePerformedAfter</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.serviceRequested</t>
-  </si>
-  <si>
-    <t>What is prescribed</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.serviceRequested</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.problemCode</t>
-  </si>
-  <si>
-    <t>The problem (code or reference) that is the main reason for this prescription</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.problemCode</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.supportingInfo</t>
-  </si>
-  <si>
-    <t>Care Set Problem</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.supportingInfo</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.resultReceiver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>True if the prescriber wants feedback. Other caregivers can be mentioned in the note</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.resultReceiver</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.status</t>
-  </si>
-  <si>
-    <t>Current status</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-status</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.status</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.statusReason</t>
-  </si>
-  <si>
-    <t>Reason current status</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.statusReason</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.treatmentStatus</t>
-  </si>
-  <si>
-    <t>Status of the treatment</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.treatmentStatus</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.treatmentStatusReason</t>
-  </si>
-  <si>
-    <t>Reason treatment status</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.treatmentStatusReason</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.bodyLocation</t>
-  </si>
-  <si>
-    <t>Place where the treatment should be executed</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.bodyLocation</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.bodyLocation.bodySite</t>
-  </si>
-  <si>
-    <t>Anatomical place where the treatment should be executed</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.bodyLocation.bodySite</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.bodyLocation.bodyLaterality</t>
-  </si>
-  <si>
-    <t>Side of the body</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.bodyLocation.bodyLaterality</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.note</t>
   </si>
   <si>
     <t>Additional text notes about the request.</t>
@@ -941,7 +820,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ40"/>
+  <dimension ref="A1:AJ27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -950,7 +829,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="57.30078125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="57.26953125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -960,7 +839,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="148.0234375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="139.328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -980,7 +859,7 @@
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="51.54296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="51.51171875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
@@ -1406,10 +1285,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>70</v>
@@ -1421,13 +1300,13 @@
         <v>70</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1478,13 +1357,13 @@
         <v>70</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>70</v>
@@ -1498,7 +1377,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1509,7 +1388,7 @@
         <v>71</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>70</v>
@@ -1521,7 +1400,7 @@
         <v>70</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>89</v>
@@ -1584,7 +1463,7 @@
         <v>71</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>70</v>
@@ -1621,13 +1500,13 @@
         <v>70</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1678,7 +1557,7 @@
         <v>70</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>71</v>
@@ -1698,7 +1577,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1706,7 +1585,7 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>76</v>
@@ -1721,7 +1600,7 @@
         <v>70</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K8" t="s" s="2">
         <v>96</v>
@@ -1781,7 +1660,7 @@
         <v>97</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>76</v>
@@ -1806,7 +1685,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>76</v>
@@ -1821,7 +1700,7 @@
         <v>70</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="K9" t="s" s="2">
         <v>99</v>
@@ -1881,7 +1760,7 @@
         <v>100</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>76</v>
@@ -1906,7 +1785,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>76</v>
@@ -1921,13 +1800,13 @@
         <v>70</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1978,10 +1857,10 @@
         <v>70</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -1998,7 +1877,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2006,10 +1885,10 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>70</v>
@@ -2021,13 +1900,13 @@
         <v>70</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>106</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2078,13 +1957,13 @@
         <v>70</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>70</v>
@@ -2098,7 +1977,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2106,7 +1985,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>76</v>
@@ -2121,13 +2000,13 @@
         <v>70</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2178,10 +2057,10 @@
         <v>70</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -2198,7 +2077,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2221,13 +2100,13 @@
         <v>70</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2278,7 +2157,7 @@
         <v>70</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>71</v>
@@ -2298,7 +2177,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2321,12 +2200,14 @@
         <v>70</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="L14" s="2"/>
+      <c r="L14" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2407,7 +2288,7 @@
         <v>71</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>70</v>
@@ -2419,12 +2300,14 @@
         <v>70</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="K15" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="L15" s="2"/>
+      <c r="L15" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2474,13 +2357,13 @@
         <v>70</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>70</v>
@@ -2494,7 +2377,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2520,10 +2403,10 @@
         <v>81</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2574,7 +2457,7 @@
         <v>70</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>71</v>
@@ -2594,7 +2477,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2617,13 +2500,13 @@
         <v>70</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2674,7 +2557,7 @@
         <v>70</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>76</v>
@@ -2694,7 +2577,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2702,7 +2585,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>76</v>
@@ -2717,13 +2600,13 @@
         <v>70</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2774,10 +2657,10 @@
         <v>70</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
@@ -2794,7 +2677,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2802,7 +2685,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>76</v>
@@ -2817,13 +2700,13 @@
         <v>70</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2874,10 +2757,10 @@
         <v>70</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -2894,7 +2777,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2917,13 +2800,13 @@
         <v>70</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2974,7 +2857,7 @@
         <v>70</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>71</v>
@@ -2994,7 +2877,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3002,10 +2885,10 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>70</v>
@@ -3017,13 +2900,13 @@
         <v>70</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3074,13 +2957,13 @@
         <v>70</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>70</v>
@@ -3094,7 +2977,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3117,13 +3000,13 @@
         <v>70</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3150,13 +3033,11 @@
         <v>70</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="X22" s="2"/>
       <c r="Y22" t="s" s="2">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>70</v>
@@ -3174,7 +3055,7 @@
         <v>70</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>71</v>
@@ -3194,7 +3075,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3202,7 +3083,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>76</v>
@@ -3217,13 +3098,13 @@
         <v>70</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3274,10 +3155,10 @@
         <v>70</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -3294,7 +3175,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3305,7 +3186,7 @@
         <v>71</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>70</v>
@@ -3317,13 +3198,13 @@
         <v>70</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3374,13 +3255,13 @@
         <v>70</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>70</v>
@@ -3394,7 +3275,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3405,7 +3286,7 @@
         <v>71</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>70</v>
@@ -3417,13 +3298,13 @@
         <v>70</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3474,13 +3355,13 @@
         <v>70</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>70</v>
@@ -3494,7 +3375,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3502,7 +3383,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>76</v>
@@ -3517,13 +3398,13 @@
         <v>70</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3574,10 +3455,10 @@
         <v>70</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -3594,7 +3475,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3602,7 +3483,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>76</v>
@@ -3617,13 +3498,13 @@
         <v>70</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3677,7 +3558,7 @@
         <v>160</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -3689,1304 +3570,6 @@
         <v>70</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G28" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="J28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K28" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="R28" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="S28" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="F29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G29" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="J29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K29" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P29" s="2"/>
-      <c r="Q29" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="R29" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="S29" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="F30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G30" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="J30" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="K30" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P30" s="2"/>
-      <c r="Q30" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="R30" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="S30" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="T30" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="F31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G31" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K31" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="R31" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="S31" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="T31" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="X31" s="2"/>
-      <c r="Y31" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="F32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G32" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="J32" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="K32" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="R32" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="S32" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="T32" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="F33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G33" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="J33" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="K33" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="R33" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="S33" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="F34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G34" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P34" s="2"/>
-      <c r="Q34" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="R34" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="F35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P35" s="2"/>
-      <c r="Q35" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="R35" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="F36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G36" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P36" s="2"/>
-      <c r="Q36" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="R36" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="S36" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="F37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G37" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="J37" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P37" s="2"/>
-      <c r="Q37" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="R37" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="S37" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="F38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P38" s="2"/>
-      <c r="Q38" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="R38" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P39" s="2"/>
-      <c r="Q39" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="R39" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="F40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P40" s="2"/>
-      <c r="Q40" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="R40" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
         <v>70</v>
       </c>
     </row>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="206">
   <si>
     <t>Property</t>
   </si>
@@ -256,17 +256,39 @@
     <t>BeReferralPrescription.recordedDate</t>
   </si>
   <si>
-    <t>BePhysiotherapyPrescription.prescriber</t>
+    <t>BePhysiotherapyPrescription.recorder</t>
   </si>
   <si>
     <t xml:space="preserve">Reference
 </t>
   </si>
   <si>
+    <t>The person who is responsable for the content, not necessarily the person who entered the content. This is either the prescriber, a co-prescriber or a performer</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.recorder</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.prescriber</t>
+  </si>
+  <si>
     <t>The prescribing healthcare party</t>
   </si>
   <si>
     <t>BeReferralPrescription.prescriber</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.co-prescriberNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt
+</t>
+  </si>
+  <si>
+    <t>Number of co-prescribers that must sign the prescription to activate it</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.co-prescriberNumber</t>
   </si>
   <si>
     <t>BePhysiotherapyPrescription.co-prescriber</t>
@@ -335,6 +357,50 @@
     <t>BeReferralPrescription.prescriptionNumber</t>
   </si>
   <si>
+    <t>BePhysiotherapyPrescription.pssNumber</t>
+  </si>
+  <si>
+    <t>An identifier for the Prescription Search Support</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.pssNumber</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.pssRejectionReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotation
+</t>
+  </si>
+  <si>
+    <t>Reason for not following the PSS suggestion</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.pssRejectionReason</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.requisition</t>
+  </si>
+  <si>
+    <t>An identifier for the bundle this prescription belongs to.</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.requisition</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.requistionType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>The type of bundle can be indicated in the type of the identifier</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.requistionType</t>
+  </si>
+  <si>
     <t>BePhysiotherapyPrescription.basedOn</t>
   </si>
   <si>
@@ -378,35 +444,67 @@
     <t>BeReferralPrescription.treatmentValidationEndDate</t>
   </si>
   <si>
-    <t>BePhysiotherapyPrescription.intendedProvider</t>
+    <t>BePhysiotherapyPrescription.creationEndDate</t>
+  </si>
+  <si>
+    <t>The prescription must have left the draft status before</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.creationEndDate</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.intendedPerformer</t>
   </si>
   <si>
     <t>The intended provider, i.e. who is expected to perform the procedure - a specific person or a speciality</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedProvider</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.intendedProvider.provider</t>
+    <t>BeReferralPrescription.intendedPerformer</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.intendedPerformer.performer</t>
   </si>
   <si>
     <t>A reference to the provider party (e.g. a NIHDI number for a healthcare professional, a SSIN or only a displaystring for a non professional caregiver,...)</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedProvider.provider</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.intendedProvider.discipline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
+    <t>BeReferralPrescription.intendedPerformer.performer</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.intendedPerformer.discipline</t>
   </si>
   <si>
     <t>The required discipline of the provider party</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedProvider.discipline</t>
+    <t>BeReferralPrescription.intendedPerformer.discipline</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.intendedPerformer.period</t>
+  </si>
+  <si>
+    <t>Start and enddate for the particular provider</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.period</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.intendedPerformer.organization</t>
+  </si>
+  <si>
+    <t>Reference to an organization that will add the performer</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.organization</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.toBePerformedAfter</t>
+  </si>
+  <si>
+    <t>The current prescription should be performed after this one</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.toBePerformedAfter</t>
   </si>
   <si>
     <t>BePhysiotherapyPrescription.serviceRequested</t>
@@ -473,20 +571,52 @@
     <t>BeReferralPrescription.statusReason</t>
   </si>
   <si>
-    <t>BePhysiotherapyPrescription.bodySite</t>
+    <t>BePhysiotherapyPrescription.treatmentStatus</t>
+  </si>
+  <si>
+    <t>Status of the treatment</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentStatus</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.treatmentStatusReason</t>
+  </si>
+  <si>
+    <t>Reason treatment status</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentStatusReason</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.bodyLocation</t>
+  </si>
+  <si>
+    <t>Place where the treatment should be executed</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.bodyLocation</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.bodyLocation.bodySite</t>
   </si>
   <si>
     <t>Anatomical place where the treatment should be executed</t>
   </si>
   <si>
-    <t>BeReferralPrescription.bodySite</t>
+    <t>BeReferralPrescription.bodyLocation.bodySite</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.bodyLocation.bodyLaterality</t>
+  </si>
+  <si>
+    <t>Side of the body</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.bodyLocation.bodyLaterality</t>
   </si>
   <si>
     <t>BePhysiotherapyPrescription.note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annotation
-</t>
   </si>
   <si>
     <t>Additional text notes about the request.</t>
@@ -820,7 +950,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ27"/>
+  <dimension ref="A1:AJ41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -829,7 +959,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="57.26953125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="57.30078125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -839,7 +969,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="139.328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="148.0234375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -859,7 +989,7 @@
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="51.51171875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="51.54296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
@@ -1285,10 +1415,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>70</v>
@@ -1300,13 +1430,13 @@
         <v>70</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="K5" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="L5" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1357,13 +1487,13 @@
         <v>70</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>70</v>
@@ -1377,7 +1507,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1385,7 +1515,7 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>76</v>
@@ -1400,7 +1530,7 @@
         <v>70</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>89</v>
@@ -1460,7 +1590,7 @@
         <v>90</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>76</v>
@@ -1488,7 +1618,7 @@
         <v>71</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>70</v>
@@ -1563,7 +1693,7 @@
         <v>71</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>70</v>
@@ -1600,7 +1730,7 @@
         <v>70</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K8" t="s" s="2">
         <v>96</v>
@@ -1700,13 +1830,13 @@
         <v>70</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1757,7 +1887,7 @@
         <v>70</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>76</v>
@@ -1777,7 +1907,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1800,7 +1930,7 @@
         <v>70</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s" s="2">
         <v>103</v>
@@ -1885,10 +2015,10 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>70</v>
@@ -1906,7 +2036,7 @@
         <v>106</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1957,13 +2087,13 @@
         <v>70</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>70</v>
@@ -1977,7 +2107,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2000,13 +2130,13 @@
         <v>70</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="K12" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="L12" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2057,7 +2187,7 @@
         <v>70</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>76</v>
@@ -2077,7 +2207,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2100,13 +2230,13 @@
         <v>70</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2157,7 +2287,7 @@
         <v>70</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>71</v>
@@ -2177,7 +2307,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2200,7 +2330,7 @@
         <v>70</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>117</v>
@@ -2288,7 +2418,7 @@
         <v>71</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>70</v>
@@ -2300,14 +2430,12 @@
         <v>70</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L15" t="s" s="2">
-        <v>120</v>
-      </c>
+      <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2363,7 +2491,7 @@
         <v>71</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>70</v>
@@ -2388,7 +2516,7 @@
         <v>71</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>70</v>
@@ -2400,14 +2528,12 @@
         <v>70</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -2457,13 +2583,13 @@
         <v>70</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>70</v>
@@ -2477,7 +2603,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2485,10 +2611,10 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>70</v>
@@ -2500,13 +2626,13 @@
         <v>70</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>127</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2557,13 +2683,13 @@
         <v>70</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>70</v>
@@ -2577,7 +2703,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2600,13 +2726,13 @@
         <v>70</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2657,7 +2783,7 @@
         <v>70</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>76</v>
@@ -2677,7 +2803,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2685,7 +2811,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>76</v>
@@ -2700,13 +2826,13 @@
         <v>70</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2757,10 +2883,10 @@
         <v>70</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -2777,7 +2903,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2800,13 +2926,13 @@
         <v>70</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2857,7 +2983,7 @@
         <v>70</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>71</v>
@@ -2877,7 +3003,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2900,13 +3026,13 @@
         <v>70</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2957,7 +3083,7 @@
         <v>70</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>71</v>
@@ -2977,7 +3103,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -2985,10 +3111,10 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>70</v>
@@ -3003,10 +3129,10 @@
         <v>92</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3033,35 +3159,37 @@
         <v>70</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="X22" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="Y22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE22" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="Z22" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>146</v>
-      </c>
       <c r="AF22" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>70</v>
@@ -3075,7 +3203,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3098,13 +3226,13 @@
         <v>70</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3155,7 +3283,7 @@
         <v>70</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>71</v>
@@ -3175,7 +3303,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3183,10 +3311,10 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>70</v>
@@ -3198,13 +3326,13 @@
         <v>70</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3255,13 +3383,13 @@
         <v>70</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>70</v>
@@ -3275,7 +3403,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3286,7 +3414,7 @@
         <v>71</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>70</v>
@@ -3298,13 +3426,13 @@
         <v>70</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3355,13 +3483,13 @@
         <v>70</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>70</v>
@@ -3375,7 +3503,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3383,7 +3511,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>76</v>
@@ -3398,13 +3526,13 @@
         <v>70</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3455,10 +3583,10 @@
         <v>70</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -3475,7 +3603,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3498,13 +3626,13 @@
         <v>70</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3570,6 +3698,1404 @@
         <v>70</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P28" s="2"/>
+      <c r="Q28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="Q30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="Q31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="X32" s="2"/>
+      <c r="Y32" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
         <v>70</v>
       </c>
     </row>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="209">
   <si>
     <t>Property</t>
   </si>
@@ -333,6 +333,15 @@
   </si>
   <si>
     <t>BeReferralPrescription.co-prescriber.status</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.co-prescriber.required</t>
+  </si>
+  <si>
+    <t>Type of mandatory for the signature of the co-prescriber (1= required: the co-prescriber SHALL sign to make the prescription valid, 2= conditionally required: the co-prescriber SHALL sign if the number of co-prescribers with a signature is lower than the number in co-prescriber number 3= optional: the signature does not affect the validity of the prescription, but is for information only</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.co-prescriber.required</t>
   </si>
   <si>
     <t>BePhysiotherapyPrescription.patient</t>
@@ -950,7 +959,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ41"/>
+  <dimension ref="A1:AJ42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -969,7 +978,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="148.0234375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2030,7 +2039,7 @@
         <v>70</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>106</v>
@@ -2130,13 +2139,13 @@
         <v>70</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K12" t="s" s="2">
-        <v>110</v>
-      </c>
       <c r="L12" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2187,7 +2196,7 @@
         <v>70</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>76</v>
@@ -2207,7 +2216,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2215,7 +2224,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>76</v>
@@ -2230,7 +2239,7 @@
         <v>70</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>113</v>
@@ -2290,7 +2299,7 @@
         <v>114</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
@@ -2330,13 +2339,13 @@
         <v>70</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="K14" t="s" s="2">
-        <v>117</v>
-      </c>
       <c r="L14" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2387,7 +2396,7 @@
         <v>70</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>71</v>
@@ -2407,7 +2416,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2430,12 +2439,14 @@
         <v>70</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L15" s="2"/>
+      <c r="L15" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2528,10 +2539,10 @@
         <v>70</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="K16" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -2583,7 +2594,7 @@
         <v>70</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>71</v>
@@ -2603,7 +2614,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2614,7 +2625,7 @@
         <v>71</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>70</v>
@@ -2626,14 +2637,12 @@
         <v>70</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L17" t="s" s="2">
-        <v>128</v>
-      </c>
+      <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -2683,13 +2692,13 @@
         <v>70</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>70</v>
@@ -2703,7 +2712,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2711,10 +2720,10 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>70</v>
@@ -2726,13 +2735,13 @@
         <v>70</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2783,13 +2792,13 @@
         <v>70</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>70</v>
@@ -2803,7 +2812,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2811,7 +2820,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>76</v>
@@ -2826,7 +2835,7 @@
         <v>70</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>135</v>
@@ -2886,7 +2895,7 @@
         <v>136</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -2926,7 +2935,7 @@
         <v>70</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>138</v>
@@ -3111,10 +3120,10 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>70</v>
@@ -3126,7 +3135,7 @@
         <v>70</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>144</v>
@@ -3186,10 +3195,10 @@
         <v>145</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>70</v>
@@ -3211,10 +3220,10 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>70</v>
@@ -3226,7 +3235,7 @@
         <v>70</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>147</v>
@@ -3286,10 +3295,10 @@
         <v>148</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>70</v>
@@ -3311,7 +3320,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>76</v>
@@ -3326,7 +3335,7 @@
         <v>70</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>150</v>
@@ -3386,7 +3395,7 @@
         <v>151</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -3411,7 +3420,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>76</v>
@@ -3426,7 +3435,7 @@
         <v>70</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>153</v>
@@ -3486,7 +3495,7 @@
         <v>154</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -3526,7 +3535,7 @@
         <v>70</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>156</v>
@@ -3711,7 +3720,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>76</v>
@@ -3726,7 +3735,7 @@
         <v>70</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>162</v>
@@ -3786,7 +3795,7 @@
         <v>163</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -3826,7 +3835,7 @@
         <v>70</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>165</v>
@@ -3911,7 +3920,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>76</v>
@@ -3986,7 +3995,7 @@
         <v>169</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -4026,13 +4035,13 @@
         <v>70</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="K31" t="s" s="2">
-        <v>172</v>
-      </c>
       <c r="L31" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4083,7 +4092,7 @@
         <v>70</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>71</v>
@@ -4103,7 +4112,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4126,7 +4135,7 @@
         <v>70</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>99</v>
+        <v>174</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>175</v>
@@ -4159,29 +4168,31 @@
         <v>70</v>
       </c>
       <c r="W32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE32" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="X32" s="2"/>
-      <c r="Y32" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>71</v>
@@ -4201,7 +4212,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4224,13 +4235,13 @@
         <v>70</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4257,13 +4268,11 @@
         <v>70</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="X33" s="2"/>
       <c r="Y33" t="s" s="2">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>70</v>
@@ -4324,7 +4333,7 @@
         <v>70</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>183</v>
@@ -4424,7 +4433,7 @@
         <v>70</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>186</v>
@@ -4512,7 +4521,7 @@
         <v>71</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>70</v>
@@ -4524,7 +4533,7 @@
         <v>70</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>189</v>
@@ -4587,7 +4596,7 @@
         <v>71</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>70</v>
@@ -4612,7 +4621,7 @@
         <v>71</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>70</v>
@@ -4624,7 +4633,7 @@
         <v>70</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>192</v>
@@ -4687,7 +4696,7 @@
         <v>71</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>70</v>
@@ -4724,7 +4733,7 @@
         <v>70</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>195</v>
@@ -4812,7 +4821,7 @@
         <v>71</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>70</v>
@@ -4824,7 +4833,7 @@
         <v>70</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>198</v>
@@ -4887,7 +4896,7 @@
         <v>71</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>70</v>
@@ -4909,10 +4918,10 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>70</v>
@@ -4924,7 +4933,7 @@
         <v>70</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>201</v>
@@ -4984,10 +4993,10 @@
         <v>202</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>70</v>
@@ -5009,7 +5018,7 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>76</v>
@@ -5024,13 +5033,13 @@
         <v>70</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="K41" t="s" s="2">
-        <v>205</v>
-      </c>
       <c r="L41" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5081,10 +5090,10 @@
         <v>70</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -5096,6 +5105,106 @@
         <v>70</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
         <v>70</v>
       </c>
     </row>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="212">
   <si>
     <t>Property</t>
   </si>
@@ -505,6 +505,15 @@
   </si>
   <si>
     <t>BeReferralPrescription.intendedPerformer.organization</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.intendedPerformer.executionPeriod</t>
+  </si>
+  <si>
+    <t>Period in which the caregiver executes the treatment</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.executionPeriod</t>
   </si>
   <si>
     <t>BePhysiotherapyPrescription.toBePerformedAfter</t>
@@ -959,7 +968,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ42"/>
+  <dimension ref="A1:AJ43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -968,7 +977,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="57.30078125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="60.671875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -998,7 +1007,7 @@
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="51.54296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="54.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
@@ -3735,7 +3744,7 @@
         <v>70</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>162</v>
@@ -3820,7 +3829,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>76</v>
@@ -3835,7 +3844,7 @@
         <v>70</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>165</v>
@@ -3895,7 +3904,7 @@
         <v>166</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -3935,7 +3944,7 @@
         <v>70</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>168</v>
@@ -4020,7 +4029,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>76</v>
@@ -4095,7 +4104,7 @@
         <v>172</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
@@ -4135,13 +4144,13 @@
         <v>70</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="K32" t="s" s="2">
-        <v>175</v>
-      </c>
       <c r="L32" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4192,7 +4201,7 @@
         <v>70</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>71</v>
@@ -4212,7 +4221,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4235,7 +4244,7 @@
         <v>70</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>99</v>
+        <v>177</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>178</v>
@@ -4268,29 +4277,31 @@
         <v>70</v>
       </c>
       <c r="W33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE33" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="X33" s="2"/>
-      <c r="Y33" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>71</v>
@@ -4310,7 +4321,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4333,13 +4344,13 @@
         <v>70</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4366,13 +4377,11 @@
         <v>70</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="X34" s="2"/>
       <c r="Y34" t="s" s="2">
-        <v>70</v>
+        <v>183</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>70</v>
@@ -4621,7 +4630,7 @@
         <v>71</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>70</v>
@@ -4633,7 +4642,7 @@
         <v>70</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>192</v>
@@ -4696,7 +4705,7 @@
         <v>71</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>70</v>
@@ -4721,7 +4730,7 @@
         <v>71</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>70</v>
@@ -4733,7 +4742,7 @@
         <v>70</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>195</v>
@@ -4796,7 +4805,7 @@
         <v>71</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>70</v>
@@ -4921,7 +4930,7 @@
         <v>71</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>70</v>
@@ -4933,7 +4942,7 @@
         <v>70</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>201</v>
@@ -4996,7 +5005,7 @@
         <v>71</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>70</v>
@@ -5018,10 +5027,10 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>70</v>
@@ -5033,7 +5042,7 @@
         <v>70</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>204</v>
@@ -5093,10 +5102,10 @@
         <v>205</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>70</v>
@@ -5118,7 +5127,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>76</v>
@@ -5133,13 +5142,13 @@
         <v>70</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="K42" t="s" s="2">
-        <v>208</v>
-      </c>
       <c r="L42" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5190,10 +5199,10 @@
         <v>70</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -5205,6 +5214,106 @@
         <v>70</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
         <v>70</v>
       </c>
     </row>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -4029,7 +4029,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>76</v>
@@ -4104,7 +4104,7 @@
         <v>172</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -4229,7 +4229,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>76</v>
@@ -4304,7 +4304,7 @@
         <v>179</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -4329,7 +4329,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>76</v>
@@ -4402,7 +4402,7 @@
         <v>184</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="215">
   <si>
     <t>Property</t>
   </si>
@@ -388,101 +388,92 @@
     <t>BeReferralPrescription.pssRejectionReason</t>
   </si>
   <si>
-    <t>BePhysiotherapyPrescription.requisition</t>
+    <t>BePhysiotherapyPrescription.groupIdentifier</t>
   </si>
   <si>
     <t>An identifier for the bundle this prescription belongs to.</t>
   </si>
   <si>
-    <t>BeReferralPrescription.requisition</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.requistionType</t>
+    <t>BeReferralPrescription.groupIdentifier</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.basedOn</t>
+  </si>
+  <si>
+    <t>The original request or prescription triggered this prescription</t>
+  </si>
+  <si>
+    <t>The original request or prescription that is the reason for this request - for example when a detailed request is created by a broader request.</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.basedOn</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.validitionPeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Period of validity of prescription</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.validitionPeriod</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.treatmentPeriod</t>
+  </si>
+  <si>
+    <t>When this prescription is executed, available after start of execution</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentPeriod</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.treatmentValidationEndDate</t>
+  </si>
+  <si>
+    <t>The latest moment to end this treatment</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentValidationEndDate</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.creationEndDate</t>
+  </si>
+  <si>
+    <t>The prescription must have left the draft status before</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.creationEndDate</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.intendedPerformer</t>
+  </si>
+  <si>
+    <t>The intended provider, i.e. who is expected to perform the procedure - a specific person or a speciality</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.intendedPerformer.performer</t>
+  </si>
+  <si>
+    <t>A reference to the provider party (e.g. a NIHDI number for a healthcare professional, a SSIN or only a displaystring for a non professional caregiver,...)</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.performer</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.intendedPerformer.discipline</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>The type of bundle can be indicated in the type of the identifier</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.requistionType</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.basedOn</t>
-  </si>
-  <si>
-    <t>The original request or prescription triggered this prescription</t>
-  </si>
-  <si>
-    <t>The original request or prescription that is the reason for this request - for example when a detailed request is created by a broader request.</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.basedOn</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.validitionPeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Period of validity of prescription</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.validitionPeriod</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.treatmentPeriod</t>
-  </si>
-  <si>
-    <t>When this prescription is executed, available after start of execution</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.treatmentPeriod</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.treatmentValidationEndDate</t>
-  </si>
-  <si>
-    <t>The latest moment to end this treatment</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.treatmentValidationEndDate</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.creationEndDate</t>
-  </si>
-  <si>
-    <t>The prescription must have left the draft status before</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.creationEndDate</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.intendedPerformer</t>
-  </si>
-  <si>
-    <t>The intended provider, i.e. who is expected to perform the procedure - a specific person or a speciality</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.intendedPerformer.performer</t>
-  </si>
-  <si>
-    <t>A reference to the provider party (e.g. a NIHDI number for a healthcare professional, a SSIN or only a displaystring for a non professional caregiver,...)</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer.performer</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.intendedPerformer.discipline</t>
-  </si>
-  <si>
     <t>The required discipline of the provider party</t>
   </si>
   <si>
@@ -516,13 +507,22 @@
     <t>BeReferralPrescription.intendedPerformer.executionPeriod</t>
   </si>
   <si>
-    <t>BePhysiotherapyPrescription.toBePerformedAfter</t>
-  </si>
-  <si>
-    <t>The current prescription should be performed after this one</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.toBePerformedAfter</t>
+    <t>BePhysiotherapyPrescription.intendedPerformer.status</t>
+  </si>
+  <si>
+    <t>Status of the action executed by the performer</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.status</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.intendedPerformer.statusReason</t>
+  </si>
+  <si>
+    <t>The reason of the status of the action executed by the performer</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.statusReason</t>
   </si>
   <si>
     <t>BePhysiotherapyPrescription.serviceRequested</t>
@@ -532,6 +532,15 @@
   </si>
   <si>
     <t>BeReferralPrescription.serviceRequested</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.serviceRequestedDetail</t>
+  </si>
+  <si>
+    <t>More detailed specification of the prescribed act</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.serviceRequestedDetail</t>
   </si>
   <si>
     <t>BePhysiotherapyPrescription.problemCode</t>
@@ -643,13 +652,13 @@
     <t>BeReferralPrescription.note</t>
   </si>
   <si>
-    <t>BePhysiotherapyPrescription.intent</t>
+    <t>BePhysiotherapyPrescription.prescriptionType</t>
   </si>
   <si>
     <t>Proposal, Prolongation, Prescription</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intent</t>
+    <t>BeReferralPrescription.prescriptionType</t>
   </si>
   <si>
     <t>BePhysiotherapyPrescription.numberOfSessions</t>
@@ -968,7 +977,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ43"/>
+  <dimension ref="A1:AJ44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2634,7 +2643,7 @@
         <v>71</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>70</v>
@@ -2646,12 +2655,14 @@
         <v>70</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -2707,7 +2718,7 @@
         <v>71</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>70</v>
@@ -2729,10 +2740,10 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>70</v>
@@ -2744,10 +2755,10 @@
         <v>70</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>131</v>
@@ -2804,10 +2815,10 @@
         <v>132</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>70</v>
@@ -2829,7 +2840,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>76</v>
@@ -2844,13 +2855,13 @@
         <v>70</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="K19" t="s" s="2">
-        <v>135</v>
-      </c>
       <c r="L19" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2901,10 +2912,10 @@
         <v>70</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -2921,7 +2932,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2944,13 +2955,13 @@
         <v>70</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3001,7 +3012,7 @@
         <v>70</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>71</v>
@@ -3021,7 +3032,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3047,10 +3058,10 @@
         <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3101,7 +3112,7 @@
         <v>70</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>71</v>
@@ -3121,7 +3132,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3129,10 +3140,10 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>70</v>
@@ -3144,13 +3155,13 @@
         <v>70</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3201,13 +3212,13 @@
         <v>70</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>70</v>
@@ -3221,7 +3232,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3229,10 +3240,10 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>70</v>
@@ -3244,13 +3255,13 @@
         <v>70</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3301,13 +3312,13 @@
         <v>70</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>70</v>
@@ -3321,7 +3332,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3329,7 +3340,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>76</v>
@@ -3344,7 +3355,7 @@
         <v>70</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>150</v>
@@ -3404,7 +3415,7 @@
         <v>151</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -3429,7 +3440,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>76</v>
@@ -3444,7 +3455,7 @@
         <v>70</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>153</v>
@@ -3504,7 +3515,7 @@
         <v>154</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -3544,7 +3555,7 @@
         <v>70</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>156</v>
@@ -3644,7 +3655,7 @@
         <v>70</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>159</v>
@@ -3744,7 +3755,7 @@
         <v>70</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>162</v>
@@ -3844,7 +3855,7 @@
         <v>70</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>165</v>
@@ -3944,7 +3955,7 @@
         <v>70</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>168</v>
@@ -4044,7 +4055,7 @@
         <v>70</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>171</v>
@@ -4229,7 +4240,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>76</v>
@@ -4244,13 +4255,13 @@
         <v>70</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="K33" t="s" s="2">
-        <v>178</v>
-      </c>
       <c r="L33" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4301,10 +4312,10 @@
         <v>70</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -4321,7 +4332,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4344,7 +4355,7 @@
         <v>70</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>99</v>
+        <v>180</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>181</v>
@@ -4377,29 +4388,31 @@
         <v>70</v>
       </c>
       <c r="W34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE34" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="X34" s="2"/>
-      <c r="Y34" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>76</v>
@@ -4419,7 +4432,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4427,7 +4440,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>76</v>
@@ -4442,13 +4455,13 @@
         <v>70</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4475,13 +4488,11 @@
         <v>70</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="X35" s="2"/>
       <c r="Y35" t="s" s="2">
-        <v>70</v>
+        <v>186</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>70</v>
@@ -4502,7 +4513,7 @@
         <v>187</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -4542,7 +4553,7 @@
         <v>70</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>189</v>
@@ -4642,7 +4653,7 @@
         <v>70</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>192</v>
@@ -4730,7 +4741,7 @@
         <v>71</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>70</v>
@@ -4742,7 +4753,7 @@
         <v>70</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>92</v>
+        <v>149</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>195</v>
@@ -4805,7 +4816,7 @@
         <v>71</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>70</v>
@@ -4830,7 +4841,7 @@
         <v>71</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>70</v>
@@ -4842,7 +4853,7 @@
         <v>70</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>198</v>
@@ -4905,7 +4916,7 @@
         <v>71</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>70</v>
@@ -4942,7 +4953,7 @@
         <v>70</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>201</v>
@@ -5030,7 +5041,7 @@
         <v>71</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>70</v>
@@ -5042,7 +5053,7 @@
         <v>70</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>204</v>
@@ -5105,7 +5116,7 @@
         <v>71</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>70</v>
@@ -5127,10 +5138,10 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>70</v>
@@ -5142,7 +5153,7 @@
         <v>70</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>207</v>
@@ -5202,10 +5213,10 @@
         <v>208</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>70</v>
@@ -5227,7 +5238,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>76</v>
@@ -5242,13 +5253,13 @@
         <v>70</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="K43" t="s" s="2">
-        <v>211</v>
-      </c>
       <c r="L43" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5299,10 +5310,10 @@
         <v>70</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -5314,6 +5325,106 @@
         <v>70</v>
       </c>
       <c r="AJ43" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
         <v>70</v>
       </c>
     </row>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="234">
   <si>
     <t>Property</t>
   </si>
@@ -234,16 +234,79 @@
     <t>*</t>
   </si>
   <si>
+    <t>Base for all elements</t>
+  </si>
+  <si>
     <t>Logical model describing the model for the prescription referral. This draft is used in the HL7 Belgian workgroup for referral.</t>
   </si>
   <si>
-    <t>Base</t>
+    <t>Element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>BePhysiotherapyPrescription.recordedDate</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t xml:space="preserve">dateTime
@@ -977,7 +1040,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ44"/>
+  <dimension ref="A1:AJ46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -988,7 +1051,7 @@
   <cols>
     <col min="1" max="1" width="60.671875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
@@ -1013,7 +1076,7 @@
     <col min="25" max="25" width="39.53515625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="54.9140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -1161,9 +1224,11 @@
       <c r="J2" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="K2" s="2"/>
+      <c r="K2" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="L2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -1214,7 +1279,7 @@
         <v>70</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>71</v>
@@ -1223,18 +1288,18 @@
         <v>72</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1242,10 +1307,10 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>70</v>
@@ -1257,13 +1322,13 @@
         <v>70</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1314,13 +1379,13 @@
         <v>70</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>70</v>
@@ -1329,23 +1394,23 @@
         <v>70</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>70</v>
@@ -1357,15 +1422,17 @@
         <v>70</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="M4" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="M4" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
         <v>70</v>
@@ -1402,39 +1469,39 @@
         <v>70</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="AC4" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1442,10 +1509,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>70</v>
@@ -1457,13 +1524,13 @@
         <v>70</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1514,13 +1581,13 @@
         <v>70</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>70</v>
@@ -1534,7 +1601,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1542,10 +1609,10 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>70</v>
@@ -1557,13 +1624,13 @@
         <v>70</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1614,13 +1681,13 @@
         <v>70</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>70</v>
@@ -1634,7 +1701,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1642,10 +1709,10 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>70</v>
@@ -1657,13 +1724,13 @@
         <v>70</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1714,13 +1781,13 @@
         <v>70</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>70</v>
@@ -1734,7 +1801,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1742,10 +1809,10 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>70</v>
@@ -1757,13 +1824,13 @@
         <v>70</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1814,13 +1881,13 @@
         <v>70</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>70</v>
@@ -1834,7 +1901,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1842,10 +1909,10 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>70</v>
@@ -1857,13 +1924,13 @@
         <v>70</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1914,13 +1981,13 @@
         <v>70</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>70</v>
@@ -1934,7 +2001,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1945,7 +2012,7 @@
         <v>71</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>70</v>
@@ -1957,13 +2024,13 @@
         <v>70</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2014,13 +2081,13 @@
         <v>70</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>70</v>
@@ -2034,7 +2101,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2042,10 +2109,10 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>70</v>
@@ -2057,13 +2124,13 @@
         <v>70</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2114,13 +2181,13 @@
         <v>70</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>70</v>
@@ -2134,7 +2201,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2142,10 +2209,10 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>70</v>
@@ -2157,13 +2224,13 @@
         <v>70</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2214,13 +2281,13 @@
         <v>70</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>70</v>
@@ -2234,7 +2301,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2242,10 +2309,10 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>70</v>
@@ -2257,13 +2324,13 @@
         <v>70</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2314,13 +2381,13 @@
         <v>70</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>70</v>
@@ -2334,7 +2401,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2342,10 +2409,10 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>70</v>
@@ -2357,13 +2424,13 @@
         <v>70</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2414,13 +2481,13 @@
         <v>70</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>70</v>
@@ -2434,7 +2501,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2442,10 +2509,10 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>70</v>
@@ -2457,13 +2524,13 @@
         <v>70</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2514,13 +2581,13 @@
         <v>70</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>70</v>
@@ -2534,7 +2601,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2545,7 +2612,7 @@
         <v>71</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>70</v>
@@ -2557,12 +2624,14 @@
         <v>70</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="L16" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -2612,13 +2681,13 @@
         <v>70</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>70</v>
@@ -2632,7 +2701,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2643,7 +2712,7 @@
         <v>71</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>70</v>
@@ -2655,13 +2724,13 @@
         <v>70</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2712,13 +2781,13 @@
         <v>70</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>70</v>
@@ -2732,7 +2801,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2740,10 +2809,10 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>70</v>
@@ -2755,14 +2824,12 @@
         <v>70</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -2812,13 +2879,13 @@
         <v>70</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>70</v>
@@ -2832,7 +2899,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2843,7 +2910,7 @@
         <v>71</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>70</v>
@@ -2855,13 +2922,13 @@
         <v>70</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2912,13 +2979,13 @@
         <v>70</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>70</v>
@@ -2932,7 +2999,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2940,10 +3007,10 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>70</v>
@@ -2955,13 +3022,13 @@
         <v>70</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3012,13 +3079,13 @@
         <v>70</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>70</v>
@@ -3032,7 +3099,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3043,7 +3110,7 @@
         <v>71</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>70</v>
@@ -3055,13 +3122,13 @@
         <v>70</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3112,13 +3179,13 @@
         <v>70</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>70</v>
@@ -3132,7 +3199,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3140,10 +3207,10 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>70</v>
@@ -3155,13 +3222,13 @@
         <v>70</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3212,13 +3279,13 @@
         <v>70</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>70</v>
@@ -3232,7 +3299,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3243,7 +3310,7 @@
         <v>71</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>70</v>
@@ -3255,13 +3322,13 @@
         <v>70</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3312,13 +3379,13 @@
         <v>70</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>70</v>
@@ -3332,7 +3399,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3340,10 +3407,10 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>70</v>
@@ -3355,13 +3422,13 @@
         <v>70</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>149</v>
+        <v>111</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3412,13 +3479,13 @@
         <v>70</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>70</v>
@@ -3432,7 +3499,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3443,7 +3510,7 @@
         <v>71</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>70</v>
@@ -3455,13 +3522,13 @@
         <v>70</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3512,13 +3579,13 @@
         <v>70</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>70</v>
@@ -3532,7 +3599,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3540,10 +3607,10 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>70</v>
@@ -3555,13 +3622,13 @@
         <v>70</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3612,13 +3679,13 @@
         <v>70</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>70</v>
@@ -3632,7 +3699,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3643,7 +3710,7 @@
         <v>71</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>70</v>
@@ -3655,13 +3722,13 @@
         <v>70</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3712,13 +3779,13 @@
         <v>70</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>70</v>
@@ -3732,7 +3799,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3743,7 +3810,7 @@
         <v>71</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>70</v>
@@ -3755,13 +3822,13 @@
         <v>70</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3812,13 +3879,13 @@
         <v>70</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>70</v>
@@ -3832,7 +3899,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3843,7 +3910,7 @@
         <v>71</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>70</v>
@@ -3858,10 +3925,10 @@
         <v>149</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3912,13 +3979,13 @@
         <v>70</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>70</v>
@@ -3932,7 +3999,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -3940,10 +4007,10 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>70</v>
@@ -3955,13 +4022,13 @@
         <v>70</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4012,13 +4079,13 @@
         <v>70</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>70</v>
@@ -4032,7 +4099,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4043,7 +4110,7 @@
         <v>71</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>70</v>
@@ -4055,13 +4122,13 @@
         <v>70</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4112,13 +4179,13 @@
         <v>70</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>70</v>
@@ -4132,7 +4199,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4140,10 +4207,10 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>70</v>
@@ -4155,13 +4222,13 @@
         <v>70</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4212,13 +4279,13 @@
         <v>70</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>70</v>
@@ -4232,7 +4299,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4243,7 +4310,7 @@
         <v>71</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>70</v>
@@ -4255,13 +4322,13 @@
         <v>70</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4312,13 +4379,13 @@
         <v>70</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>70</v>
@@ -4332,7 +4399,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4340,10 +4407,10 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>70</v>
@@ -4355,13 +4422,13 @@
         <v>70</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4412,13 +4479,13 @@
         <v>70</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>70</v>
@@ -4432,7 +4499,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4440,10 +4507,10 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>70</v>
@@ -4455,13 +4522,13 @@
         <v>70</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4488,11 +4555,13 @@
         <v>70</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="X35" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="Y35" t="s" s="2">
-        <v>186</v>
+        <v>70</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>70</v>
@@ -4510,13 +4579,13 @@
         <v>70</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>70</v>
@@ -4530,7 +4599,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4538,10 +4607,10 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>70</v>
@@ -4553,13 +4622,13 @@
         <v>70</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>149</v>
+        <v>199</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4610,13 +4679,13 @@
         <v>70</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>70</v>
@@ -4630,7 +4699,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4638,10 +4707,10 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>70</v>
@@ -4653,13 +4722,13 @@
         <v>70</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -4686,13 +4755,11 @@
         <v>70</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="X37" s="2"/>
       <c r="Y37" t="s" s="2">
-        <v>70</v>
+        <v>205</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>70</v>
@@ -4710,13 +4777,13 @@
         <v>70</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>70</v>
@@ -4730,7 +4797,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -4741,7 +4808,7 @@
         <v>71</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>70</v>
@@ -4753,13 +4820,13 @@
         <v>70</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -4810,13 +4877,13 @@
         <v>70</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>70</v>
@@ -4830,7 +4897,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -4841,7 +4908,7 @@
         <v>71</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>70</v>
@@ -4853,13 +4920,13 @@
         <v>70</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>92</v>
+        <v>168</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -4910,13 +4977,13 @@
         <v>70</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>70</v>
@@ -4930,7 +4997,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -4941,7 +5008,7 @@
         <v>71</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>70</v>
@@ -4953,13 +5020,13 @@
         <v>70</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5010,13 +5077,13 @@
         <v>70</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>70</v>
@@ -5030,7 +5097,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5041,7 +5108,7 @@
         <v>71</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>70</v>
@@ -5053,13 +5120,13 @@
         <v>70</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>149</v>
+        <v>111</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5110,13 +5177,13 @@
         <v>70</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>70</v>
@@ -5130,7 +5197,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5141,7 +5208,7 @@
         <v>71</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>70</v>
@@ -5153,13 +5220,13 @@
         <v>70</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>119</v>
+        <v>168</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5210,13 +5277,13 @@
         <v>70</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>70</v>
@@ -5230,7 +5297,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5238,10 +5305,10 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>70</v>
@@ -5253,13 +5320,13 @@
         <v>70</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>99</v>
+        <v>168</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5310,13 +5377,13 @@
         <v>70</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>70</v>
@@ -5330,7 +5397,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5341,7 +5408,7 @@
         <v>71</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>70</v>
@@ -5353,13 +5420,13 @@
         <v>70</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>213</v>
+        <v>138</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5410,13 +5477,13 @@
         <v>70</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>70</v>
@@ -5425,6 +5492,206 @@
         <v>70</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
         <v>70</v>
       </c>
     </row>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="251">
   <si>
     <t>Property</t>
   </si>
@@ -367,6 +367,42 @@
     <t>BeReferralPrescription.co-prescriber</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.co-prescriber.id</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.co-prescriber.extension</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.co-prescriber.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>BePhysiotherapyPrescription.co-prescriber.co-prescriber</t>
   </si>
   <si>
@@ -521,6 +557,15 @@
     <t>BeReferralPrescription.intendedPerformer</t>
   </si>
   <si>
+    <t>BePhysiotherapyPrescription.intendedPerformer.id</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.intendedPerformer.extension</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.intendedPerformer.modifierExtension</t>
+  </si>
+  <si>
     <t>BePhysiotherapyPrescription.intendedPerformer.performer</t>
   </si>
   <si>
@@ -686,6 +731,15 @@
   </si>
   <si>
     <t>BeReferralPrescription.bodyLocation</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.bodyLocation.id</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.bodyLocation.extension</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.bodyLocation.modifierExtension</t>
   </si>
   <si>
     <t>BePhysiotherapyPrescription.bodyLocation.bodySite</t>
@@ -1040,7 +1094,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ46"/>
+  <dimension ref="A1:AJ55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1049,9 +1103,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="60.671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="62.484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
@@ -1993,7 +2047,7 @@
         <v>70</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>70</v>
@@ -2001,7 +2055,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -2024,13 +2078,13 @@
         <v>70</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2081,7 +2135,7 @@
         <v>70</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>71</v>
@@ -2096,23 +2150,23 @@
         <v>70</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>70</v>
@@ -2124,15 +2178,17 @@
         <v>70</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="M11" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>70</v>
@@ -2169,71 +2225,75 @@
         <v>70</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="AC11" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
         <v>71</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>70</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N12" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="L12" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>70</v>
       </c>
@@ -2287,21 +2347,21 @@
         <v>71</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>70</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2309,7 +2369,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>79</v>
@@ -2324,13 +2384,13 @@
         <v>70</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2381,10 +2441,10 @@
         <v>70</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -2401,7 +2461,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2424,13 +2484,13 @@
         <v>70</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2481,7 +2541,7 @@
         <v>70</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>79</v>
@@ -2501,7 +2561,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2509,7 +2569,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>79</v>
@@ -2524,13 +2584,13 @@
         <v>70</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2581,10 +2641,10 @@
         <v>70</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -2601,7 +2661,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2609,7 +2669,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>79</v>
@@ -2624,13 +2684,13 @@
         <v>70</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2681,10 +2741,10 @@
         <v>70</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -2701,7 +2761,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2709,7 +2769,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>79</v>
@@ -2724,7 +2784,7 @@
         <v>70</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>139</v>
@@ -2784,7 +2844,7 @@
         <v>140</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -2809,7 +2869,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>79</v>
@@ -2824,12 +2884,14 @@
         <v>70</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="L18" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -2879,10 +2941,10 @@
         <v>70</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -2899,7 +2961,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2910,7 +2972,7 @@
         <v>71</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>70</v>
@@ -2922,10 +2984,10 @@
         <v>70</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L19" t="s" s="2">
         <v>146</v>
@@ -2985,7 +3047,7 @@
         <v>71</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>70</v>
@@ -3007,7 +3069,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>79</v>
@@ -3082,7 +3144,7 @@
         <v>151</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -3122,14 +3184,12 @@
         <v>70</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="L21" t="s" s="2">
-        <v>153</v>
-      </c>
+      <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3210,7 +3270,7 @@
         <v>71</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>70</v>
@@ -3222,13 +3282,13 @@
         <v>70</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>156</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3279,13 +3339,13 @@
         <v>70</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>70</v>
@@ -3299,7 +3359,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3307,7 +3367,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>79</v>
@@ -3322,13 +3382,13 @@
         <v>70</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3379,10 +3439,10 @@
         <v>70</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -3399,7 +3459,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3407,10 +3467,10 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>70</v>
@@ -3422,13 +3482,13 @@
         <v>70</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3479,13 +3539,13 @@
         <v>70</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>70</v>
@@ -3499,7 +3559,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3522,13 +3582,13 @@
         <v>70</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3579,7 +3639,7 @@
         <v>70</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>71</v>
@@ -3599,7 +3659,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3607,7 +3667,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>79</v>
@@ -3622,13 +3682,13 @@
         <v>70</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>168</v>
+        <v>96</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3679,10 +3739,10 @@
         <v>70</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -3699,7 +3759,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3707,10 +3767,10 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>70</v>
@@ -3722,13 +3782,13 @@
         <v>70</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>149</v>
+        <v>111</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3779,19 +3839,19 @@
         <v>70</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>70</v>
@@ -3799,7 +3859,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3822,13 +3882,13 @@
         <v>70</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>175</v>
+        <v>82</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3879,7 +3939,7 @@
         <v>70</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>176</v>
+        <v>83</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>71</v>
@@ -3894,23 +3954,23 @@
         <v>70</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>71</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>70</v>
@@ -3922,15 +3982,17 @@
         <v>70</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>149</v>
+        <v>86</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>178</v>
+        <v>87</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>70</v>
@@ -3967,71 +4029,75 @@
         <v>70</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>179</v>
+        <v>93</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>71</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>70</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>181</v>
+        <v>120</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>70</v>
       </c>
@@ -4079,27 +4145,27 @@
         <v>70</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>70</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4122,13 +4188,13 @@
         <v>70</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>168</v>
+        <v>100</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4179,7 +4245,7 @@
         <v>70</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>71</v>
@@ -4199,7 +4265,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4222,13 +4288,13 @@
         <v>70</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4279,7 +4345,7 @@
         <v>70</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>79</v>
@@ -4299,7 +4365,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4322,13 +4388,13 @@
         <v>70</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4379,7 +4445,7 @@
         <v>70</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>71</v>
@@ -4399,7 +4465,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4425,10 +4491,10 @@
         <v>100</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4479,7 +4545,7 @@
         <v>70</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>71</v>
@@ -4499,7 +4565,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4522,13 +4588,13 @@
         <v>70</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4579,7 +4645,7 @@
         <v>70</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>71</v>
@@ -4599,7 +4665,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4607,7 +4673,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>79</v>
@@ -4622,13 +4688,13 @@
         <v>70</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>199</v>
+        <v>129</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4679,10 +4745,10 @@
         <v>70</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -4699,7 +4765,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4707,7 +4773,7 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>79</v>
@@ -4722,13 +4788,13 @@
         <v>70</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -4755,11 +4821,13 @@
         <v>70</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="X37" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="Y37" t="s" s="2">
-        <v>205</v>
+        <v>70</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>70</v>
@@ -4777,10 +4845,10 @@
         <v>70</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -4797,7 +4865,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -4805,7 +4873,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>79</v>
@@ -4820,13 +4888,13 @@
         <v>70</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -4877,10 +4945,10 @@
         <v>70</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -4897,7 +4965,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -4920,13 +4988,13 @@
         <v>70</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -4977,7 +5045,7 @@
         <v>70</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>71</v>
@@ -4997,7 +5065,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5020,13 +5088,13 @@
         <v>70</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>168</v>
+        <v>100</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5077,7 +5145,7 @@
         <v>70</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>71</v>
@@ -5097,7 +5165,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5108,7 +5176,7 @@
         <v>71</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>70</v>
@@ -5120,13 +5188,13 @@
         <v>70</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5177,13 +5245,13 @@
         <v>70</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>70</v>
@@ -5197,7 +5265,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5205,7 +5273,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>79</v>
@@ -5220,13 +5288,13 @@
         <v>70</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>168</v>
+        <v>213</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5277,10 +5345,10 @@
         <v>70</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -5297,7 +5365,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5305,7 +5373,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>79</v>
@@ -5320,13 +5388,13 @@
         <v>70</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5353,13 +5421,11 @@
         <v>70</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="X43" s="2"/>
       <c r="Y43" t="s" s="2">
-        <v>70</v>
+        <v>219</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>70</v>
@@ -5377,10 +5443,10 @@
         <v>70</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -5397,7 +5463,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5408,7 +5474,7 @@
         <v>71</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>70</v>
@@ -5420,13 +5486,13 @@
         <v>70</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5477,13 +5543,13 @@
         <v>70</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>70</v>
@@ -5497,7 +5563,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5505,7 +5571,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>79</v>
@@ -5520,13 +5586,13 @@
         <v>70</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -5577,10 +5643,10 @@
         <v>70</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -5597,7 +5663,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -5620,13 +5686,13 @@
         <v>70</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>232</v>
+        <v>182</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -5677,21 +5743,927 @@
         <v>70</v>
       </c>
       <c r="AE46" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AF46" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
+      <c r="L47" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
         <v>70</v>
       </c>
     </row>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1810" uniqueCount="252">
   <si>
     <t>Property</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>specialization</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>Path</t>
@@ -1094,7 +1097,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ55"/>
+  <dimension ref="A1:AK55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1104,41 +1107,41 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="62.484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="62.484375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="17.66015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="39.53515625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="54.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="39.53515625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="54.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1250,133 +1253,139 @@
       <c r="AJ1" t="s" s="1">
         <v>69</v>
       </c>
+      <c r="AK1" t="s" s="1">
+        <v>70</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="B2" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
         <v>72</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="M2" s="2"/>
+      <c r="M2" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>70</v>
-      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
+      </c>
+      <c r="AK2" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="K3" t="s" s="2">
         <v>81</v>
@@ -1384,99 +1393,102 @@
       <c r="L3" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="M3" s="2"/>
+      <c r="M3" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>70</v>
-      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
+      </c>
+      <c r="AK3" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="B4" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
         <v>72</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>87</v>
@@ -1487,598 +1499,616 @@
       <c r="M4" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>70</v>
-      </c>
+      <c r="N4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="AB4" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
+      </c>
+      <c r="AK4" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>97</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="M5" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="N5" s="2"/>
-      <c r="O5" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
-        <v>70</v>
-      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AK5" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>101</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M6" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="N6" s="2"/>
-      <c r="O6" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>70</v>
-      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M7" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>70</v>
-      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="K8" t="s" s="2">
         <v>108</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M8" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="N8" s="2"/>
-      <c r="O8" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="s" s="2">
-        <v>70</v>
-      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
         <v>72</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="K9" t="s" s="2">
         <v>112</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="N9" s="2"/>
-      <c r="O9" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" t="s" s="2">
-        <v>70</v>
-      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>70</v>
+        <v>115</v>
+      </c>
+      <c r="AK9" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="K10" t="s" s="2">
         <v>81</v>
@@ -2086,99 +2116,102 @@
       <c r="L10" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="M10" s="2"/>
+      <c r="M10" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="N10" s="2"/>
-      <c r="O10" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" t="s" s="2">
-        <v>70</v>
-      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
+      </c>
+      <c r="AK10" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>72</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>87</v>
@@ -2189,1700 +2222,1751 @@
       <c r="M11" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" t="s" s="2">
-        <v>70</v>
-      </c>
+      <c r="N11" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="AB11" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="B12" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>72</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>121</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="P12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>123</v>
+        <v>71</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>124</v>
+        <v>95</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M13" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>127</v>
+      </c>
       <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" t="s" s="2">
-        <v>70</v>
-      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>130</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" t="s" s="2">
-        <v>70</v>
-      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>131</v>
+        <v>71</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M15" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="N15" s="2"/>
-      <c r="O15" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" t="s" s="2">
-        <v>70</v>
-      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>71</v>
+        <v>135</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="N16" s="2"/>
-      <c r="O16" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" t="s" s="2">
-        <v>70</v>
-      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" t="s" s="2">
-        <v>70</v>
-      </c>
+      <c r="O17" s="2"/>
+      <c r="P17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>143</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="M18" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="N18" s="2"/>
-      <c r="O18" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" t="s" s="2">
-        <v>70</v>
-      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>144</v>
+        <v>71</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" t="s" s="2">
-        <v>70</v>
-      </c>
+      <c r="O19" s="2"/>
+      <c r="P19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>71</v>
+        <v>148</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>149</v>
+        <v>71</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>150</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M20" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" t="s" s="2">
-        <v>70</v>
-      </c>
+      <c r="O20" s="2"/>
+      <c r="P20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>151</v>
+        <v>71</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="L21" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" t="s" s="2">
-        <v>70</v>
-      </c>
+      <c r="O21" s="2"/>
+      <c r="P21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>154</v>
+        <v>71</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>72</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="L22" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="M22" s="2"/>
+      <c r="M22" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" t="s" s="2">
-        <v>70</v>
-      </c>
+      <c r="O22" s="2"/>
+      <c r="P22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>158</v>
+        <v>71</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>71</v>
+        <v>159</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>160</v>
+        <v>71</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>161</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P23" s="2"/>
-      <c r="Q23" t="s" s="2">
-        <v>70</v>
-      </c>
+      <c r="O23" s="2"/>
+      <c r="P23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>162</v>
+        <v>71</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>160</v>
+        <v>71</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M24" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="N24" s="2"/>
-      <c r="O24" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" t="s" s="2">
-        <v>70</v>
-      </c>
+      <c r="O24" s="2"/>
+      <c r="P24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>165</v>
+        <v>71</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>71</v>
+        <v>166</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>167</v>
+        <v>97</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" t="s" s="2">
-        <v>70</v>
-      </c>
+      <c r="O25" s="2"/>
+      <c r="P25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>168</v>
+        <v>71</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>71</v>
+        <v>169</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P26" s="2"/>
-      <c r="Q26" t="s" s="2">
-        <v>70</v>
-      </c>
+      <c r="O26" s="2"/>
+      <c r="P26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>171</v>
+        <v>71</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>71</v>
+        <v>172</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>173</v>
+        <v>112</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" t="s" s="2">
-        <v>70</v>
-      </c>
+      <c r="O27" s="2"/>
+      <c r="P27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>174</v>
+        <v>71</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>79</v>
+        <v>175</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>70</v>
+        <v>115</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>81</v>
@@ -3890,99 +3974,102 @@
       <c r="L28" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="M28" s="2"/>
+      <c r="M28" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" t="s" s="2">
-        <v>70</v>
-      </c>
+      <c r="O28" s="2"/>
+      <c r="P28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>87</v>
@@ -3993,1900 +4080,1957 @@
       <c r="M29" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="N29" s="2"/>
-      <c r="O29" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P29" s="2"/>
-      <c r="Q29" t="s" s="2">
-        <v>70</v>
-      </c>
+      <c r="N29" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="O29" s="2"/>
+      <c r="P29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="AB29" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="AE29" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="L30" t="s" s="2">
         <v>121</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P30" s="2"/>
-      <c r="Q30" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="P30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>123</v>
+        <v>71</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>124</v>
+        <v>95</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>125</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" t="s" s="2">
-        <v>70</v>
-      </c>
+      <c r="O31" s="2"/>
+      <c r="P31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>180</v>
+        <v>71</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>71</v>
+        <v>181</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>182</v>
+        <v>71</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>183</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="N32" s="2"/>
-      <c r="O32" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" t="s" s="2">
-        <v>70</v>
-      </c>
+      <c r="O32" s="2"/>
+      <c r="P32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>184</v>
+        <v>71</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>79</v>
+        <v>185</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>160</v>
+        <v>71</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" t="s" s="2">
-        <v>70</v>
-      </c>
+      <c r="O33" s="2"/>
+      <c r="P33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>187</v>
+        <v>71</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>71</v>
+        <v>188</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>189</v>
+        <v>101</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P34" s="2"/>
-      <c r="Q34" t="s" s="2">
-        <v>70</v>
-      </c>
+      <c r="O34" s="2"/>
+      <c r="P34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>190</v>
+        <v>71</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>71</v>
+        <v>191</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>160</v>
+        <v>71</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P35" s="2"/>
-      <c r="Q35" t="s" s="2">
-        <v>70</v>
-      </c>
+      <c r="O35" s="2"/>
+      <c r="P35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>193</v>
+        <v>71</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>71</v>
+        <v>194</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P36" s="2"/>
-      <c r="Q36" t="s" s="2">
-        <v>70</v>
-      </c>
+      <c r="O36" s="2"/>
+      <c r="P36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>196</v>
+        <v>71</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>71</v>
+        <v>197</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>182</v>
+        <v>71</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P37" s="2"/>
-      <c r="Q37" t="s" s="2">
-        <v>70</v>
-      </c>
+      <c r="O37" s="2"/>
+      <c r="P37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>199</v>
+        <v>71</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>71</v>
+        <v>200</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>182</v>
+        <v>71</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P38" s="2"/>
-      <c r="Q38" t="s" s="2">
-        <v>70</v>
-      </c>
+      <c r="O38" s="2"/>
+      <c r="P38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>202</v>
+        <v>71</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>182</v>
+        <v>71</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P39" s="2"/>
-      <c r="Q39" t="s" s="2">
-        <v>70</v>
-      </c>
+      <c r="O39" s="2"/>
+      <c r="P39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>205</v>
+        <v>71</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>71</v>
+        <v>206</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>207</v>
+        <v>101</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="N40" s="2"/>
-      <c r="O40" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P40" s="2"/>
-      <c r="Q40" t="s" s="2">
-        <v>70</v>
-      </c>
+      <c r="O40" s="2"/>
+      <c r="P40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>208</v>
+        <v>71</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>71</v>
+        <v>209</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>210</v>
+        <v>101</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P41" s="2"/>
-      <c r="Q41" t="s" s="2">
-        <v>70</v>
-      </c>
+      <c r="O41" s="2"/>
+      <c r="P41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>211</v>
+        <v>71</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>71</v>
+        <v>212</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>213</v>
+        <v>71</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>214</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P42" s="2"/>
-      <c r="Q42" t="s" s="2">
-        <v>70</v>
-      </c>
+      <c r="O42" s="2"/>
+      <c r="P42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>215</v>
+        <v>71</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>79</v>
+        <v>216</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>217</v>
+        <v>130</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="N43" s="2"/>
-      <c r="O43" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P43" s="2"/>
-      <c r="Q43" t="s" s="2">
-        <v>70</v>
-      </c>
+      <c r="O43" s="2"/>
+      <c r="P43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="X43" s="2"/>
-      <c r="Y43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X43" t="s" s="2">
         <v>219</v>
       </c>
+      <c r="Y43" s="2"/>
       <c r="Z43" t="s" s="2">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>220</v>
+        <v>71</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>182</v>
+        <v>71</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>222</v>
+        <v>183</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P44" s="2"/>
-      <c r="Q44" t="s" s="2">
-        <v>70</v>
-      </c>
+      <c r="O44" s="2"/>
+      <c r="P44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>223</v>
+        <v>71</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>71</v>
+        <v>224</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>182</v>
+        <v>71</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P45" s="2"/>
-      <c r="Q45" t="s" s="2">
-        <v>70</v>
-      </c>
+      <c r="O45" s="2"/>
+      <c r="P45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>226</v>
+        <v>71</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>71</v>
+        <v>227</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>182</v>
+        <v>71</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>228</v>
+        <v>183</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P46" s="2"/>
-      <c r="Q46" t="s" s="2">
-        <v>70</v>
-      </c>
+      <c r="O46" s="2"/>
+      <c r="P46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>229</v>
+        <v>71</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>71</v>
+        <v>230</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>72</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>231</v>
+        <v>112</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="N47" s="2"/>
-      <c r="O47" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P47" s="2"/>
-      <c r="Q47" t="s" s="2">
-        <v>70</v>
-      </c>
+      <c r="O47" s="2"/>
+      <c r="P47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>232</v>
+        <v>71</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>71</v>
+        <v>233</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>70</v>
+        <v>115</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>81</v>
@@ -5894,99 +6038,102 @@
       <c r="L48" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="M48" s="2"/>
+      <c r="M48" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="N48" s="2"/>
-      <c r="O48" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P48" s="2"/>
-      <c r="Q48" t="s" s="2">
-        <v>70</v>
-      </c>
+      <c r="O48" s="2"/>
+      <c r="P48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>72</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>87</v>
@@ -5997,674 +6144,695 @@
       <c r="M49" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P49" s="2"/>
-      <c r="Q49" t="s" s="2">
-        <v>70</v>
-      </c>
+      <c r="N49" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="O49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="AB49" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="AE49" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>72</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="L50" t="s" s="2">
         <v>121</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P50" s="2"/>
-      <c r="Q50" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="P50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>123</v>
+        <v>71</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>124</v>
+        <v>95</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>125</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>182</v>
+        <v>71</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>237</v>
+        <v>183</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P51" s="2"/>
-      <c r="Q51" t="s" s="2">
-        <v>70</v>
-      </c>
+      <c r="O51" s="2"/>
+      <c r="P51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>238</v>
+        <v>71</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>71</v>
+        <v>239</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>182</v>
+        <v>71</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>240</v>
+        <v>183</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="N52" s="2"/>
-      <c r="O52" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P52" s="2"/>
-      <c r="Q52" t="s" s="2">
-        <v>70</v>
-      </c>
+      <c r="O52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>241</v>
+        <v>71</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>71</v>
+        <v>242</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>72</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>149</v>
+        <v>71</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>243</v>
+        <v>150</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P53" s="2"/>
-      <c r="Q53" t="s" s="2">
-        <v>70</v>
-      </c>
+      <c r="O53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>244</v>
+        <v>71</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>71</v>
+        <v>245</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>246</v>
+        <v>130</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P54" s="2"/>
-      <c r="Q54" t="s" s="2">
-        <v>70</v>
-      </c>
+      <c r="O54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>247</v>
+        <v>71</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="E55" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>249</v>
+        <v>71</v>
       </c>
       <c r="K55" t="s" s="2">
         <v>250</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="N55" s="2"/>
-      <c r="O55" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="P55" s="2"/>
-      <c r="Q55" t="s" s="2">
-        <v>70</v>
-      </c>
+      <c r="O55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>248</v>
+        <v>71</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>71</v>
+        <v>249</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1810" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1810" uniqueCount="253">
   <si>
     <t>Property</t>
   </si>
@@ -235,6 +235,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>Base for all elements</t>
@@ -1285,13 +1289,13 @@
         <v>71</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1342,7 +1346,7 @@
         <v>71</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>72</v>
@@ -1351,21 +1355,21 @@
         <v>73</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1376,7 +1380,7 @@
         <v>72</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>71</v>
@@ -1388,13 +1392,13 @@
         <v>71</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1445,13 +1449,13 @@
         <v>71</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>71</v>
@@ -1460,19 +1464,19 @@
         <v>71</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
@@ -1491,16 +1495,16 @@
         <v>71</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1538,19 +1542,19 @@
         <v>71</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>72</v>
@@ -1562,18 +1566,18 @@
         <v>71</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1581,10 +1585,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>71</v>
@@ -1596,13 +1600,13 @@
         <v>71</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1653,13 +1657,13 @@
         <v>71</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>71</v>
@@ -1673,10 +1677,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1684,10 +1688,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>71</v>
@@ -1699,13 +1703,13 @@
         <v>71</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1756,13 +1760,13 @@
         <v>71</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>71</v>
@@ -1776,10 +1780,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1787,10 +1791,10 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>71</v>
@@ -1802,13 +1806,13 @@
         <v>71</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1859,13 +1863,13 @@
         <v>71</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>71</v>
@@ -1879,10 +1883,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1890,10 +1894,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>71</v>
@@ -1905,13 +1909,13 @@
         <v>71</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1962,13 +1966,13 @@
         <v>71</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>71</v>
@@ -1982,10 +1986,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2008,13 +2012,13 @@
         <v>71</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2065,7 +2069,7 @@
         <v>71</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>72</v>
@@ -2077,7 +2081,7 @@
         <v>71</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>71</v>
@@ -2085,10 +2089,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2099,7 +2103,7 @@
         <v>72</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>71</v>
@@ -2111,13 +2115,13 @@
         <v>71</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2168,13 +2172,13 @@
         <v>71</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>71</v>
@@ -2183,19 +2187,19 @@
         <v>71</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2214,16 +2218,16 @@
         <v>71</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2261,19 +2265,19 @@
         <v>71</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AD11" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>72</v>
@@ -2285,22 +2289,22 @@
         <v>71</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2313,25 +2317,25 @@
         <v>71</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>71</v>
@@ -2380,7 +2384,7 @@
         <v>71</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>72</v>
@@ -2392,18 +2396,18 @@
         <v>71</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2414,7 +2418,7 @@
         <v>72</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>71</v>
@@ -2426,13 +2430,13 @@
         <v>71</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2483,13 +2487,13 @@
         <v>71</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>71</v>
@@ -2503,10 +2507,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2514,10 +2518,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>71</v>
@@ -2529,13 +2533,13 @@
         <v>71</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2586,13 +2590,13 @@
         <v>71</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>71</v>
@@ -2606,10 +2610,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2620,7 +2624,7 @@
         <v>72</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>71</v>
@@ -2632,13 +2636,13 @@
         <v>71</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2689,13 +2693,13 @@
         <v>71</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>71</v>
@@ -2709,10 +2713,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2720,10 +2724,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>71</v>
@@ -2735,13 +2739,13 @@
         <v>71</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2792,13 +2796,13 @@
         <v>71</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>71</v>
@@ -2812,10 +2816,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2823,10 +2827,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>71</v>
@@ -2838,13 +2842,13 @@
         <v>71</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2895,13 +2899,13 @@
         <v>71</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>71</v>
@@ -2915,10 +2919,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2926,10 +2930,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>71</v>
@@ -2941,13 +2945,13 @@
         <v>71</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2998,13 +3002,13 @@
         <v>71</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>71</v>
@@ -3018,10 +3022,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3032,7 +3036,7 @@
         <v>72</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>71</v>
@@ -3044,13 +3048,13 @@
         <v>71</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3101,13 +3105,13 @@
         <v>71</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>71</v>
@@ -3121,10 +3125,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3135,7 +3139,7 @@
         <v>72</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>71</v>
@@ -3147,13 +3151,13 @@
         <v>71</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3204,13 +3208,13 @@
         <v>71</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>71</v>
@@ -3224,10 +3228,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3238,7 +3242,7 @@
         <v>72</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>71</v>
@@ -3250,10 +3254,10 @@
         <v>71</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3305,13 +3309,13 @@
         <v>71</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>71</v>
@@ -3325,10 +3329,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3351,13 +3355,13 @@
         <v>71</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3408,7 +3412,7 @@
         <v>71</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>72</v>
@@ -3428,10 +3432,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3439,10 +3443,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>71</v>
@@ -3454,13 +3458,13 @@
         <v>71</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3511,13 +3515,13 @@
         <v>71</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>71</v>
@@ -3531,10 +3535,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3545,7 +3549,7 @@
         <v>72</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>71</v>
@@ -3557,13 +3561,13 @@
         <v>71</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3614,13 +3618,13 @@
         <v>71</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>71</v>
@@ -3634,10 +3638,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3648,7 +3652,7 @@
         <v>72</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>71</v>
@@ -3660,13 +3664,13 @@
         <v>71</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3717,13 +3721,13 @@
         <v>71</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>71</v>
@@ -3737,10 +3741,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3751,7 +3755,7 @@
         <v>72</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>71</v>
@@ -3763,13 +3767,13 @@
         <v>71</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3820,13 +3824,13 @@
         <v>71</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>71</v>
@@ -3840,10 +3844,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3851,7 +3855,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>73</v>
@@ -3866,13 +3870,13 @@
         <v>71</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -3923,10 +3927,10 @@
         <v>71</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>73</v>
@@ -3935,7 +3939,7 @@
         <v>71</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>71</v>
@@ -3943,10 +3947,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -3957,7 +3961,7 @@
         <v>72</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>71</v>
@@ -3969,13 +3973,13 @@
         <v>71</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4026,13 +4030,13 @@
         <v>71</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>71</v>
@@ -4041,19 +4045,19 @@
         <v>71</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4072,16 +4076,16 @@
         <v>71</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4119,19 +4123,19 @@
         <v>71</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>72</v>
@@ -4143,22 +4147,22 @@
         <v>71</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4171,25 +4175,25 @@
         <v>71</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>71</v>
@@ -4238,7 +4242,7 @@
         <v>71</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>72</v>
@@ -4250,18 +4254,18 @@
         <v>71</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4272,7 +4276,7 @@
         <v>72</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>71</v>
@@ -4284,13 +4288,13 @@
         <v>71</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4341,13 +4345,13 @@
         <v>71</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>71</v>
@@ -4361,10 +4365,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4372,10 +4376,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>71</v>
@@ -4387,13 +4391,13 @@
         <v>71</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4444,13 +4448,13 @@
         <v>71</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>71</v>
@@ -4464,10 +4468,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4478,7 +4482,7 @@
         <v>72</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>71</v>
@@ -4490,13 +4494,13 @@
         <v>71</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4547,13 +4551,13 @@
         <v>71</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>71</v>
@@ -4567,10 +4571,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4581,7 +4585,7 @@
         <v>72</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>71</v>
@@ -4593,13 +4597,13 @@
         <v>71</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4650,13 +4654,13 @@
         <v>71</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>71</v>
@@ -4670,10 +4674,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4684,7 +4688,7 @@
         <v>72</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>71</v>
@@ -4696,13 +4700,13 @@
         <v>71</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -4753,13 +4757,13 @@
         <v>71</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>71</v>
@@ -4773,10 +4777,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4787,7 +4791,7 @@
         <v>72</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>71</v>
@@ -4799,13 +4803,13 @@
         <v>71</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -4856,13 +4860,13 @@
         <v>71</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>71</v>
@@ -4876,10 +4880,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -4890,7 +4894,7 @@
         <v>72</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>71</v>
@@ -4902,13 +4906,13 @@
         <v>71</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -4959,13 +4963,13 @@
         <v>71</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>71</v>
@@ -4979,10 +4983,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -4990,10 +4994,10 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>71</v>
@@ -5005,13 +5009,13 @@
         <v>71</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5062,13 +5066,13 @@
         <v>71</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>71</v>
@@ -5082,10 +5086,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5096,7 +5100,7 @@
         <v>72</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>71</v>
@@ -5108,13 +5112,13 @@
         <v>71</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5165,13 +5169,13 @@
         <v>71</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>71</v>
@@ -5185,10 +5189,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5199,7 +5203,7 @@
         <v>72</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>71</v>
@@ -5211,13 +5215,13 @@
         <v>71</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5268,13 +5272,13 @@
         <v>71</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>71</v>
@@ -5288,10 +5292,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5302,7 +5306,7 @@
         <v>72</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>71</v>
@@ -5314,13 +5318,13 @@
         <v>71</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -5371,13 +5375,13 @@
         <v>71</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>71</v>
@@ -5391,10 +5395,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5402,10 +5406,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>71</v>
@@ -5417,13 +5421,13 @@
         <v>71</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -5474,13 +5478,13 @@
         <v>71</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>71</v>
@@ -5494,10 +5498,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -5505,10 +5509,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>71</v>
@@ -5520,13 +5524,13 @@
         <v>71</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -5553,11 +5557,11 @@
         <v>71</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Y43" s="2"/>
       <c r="Z43" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>71</v>
@@ -5575,13 +5579,13 @@
         <v>71</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>71</v>
@@ -5595,10 +5599,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5609,7 +5613,7 @@
         <v>72</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>71</v>
@@ -5621,13 +5625,13 @@
         <v>71</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -5678,13 +5682,13 @@
         <v>71</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>71</v>
@@ -5698,10 +5702,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -5712,7 +5716,7 @@
         <v>72</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>71</v>
@@ -5724,13 +5728,13 @@
         <v>71</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -5781,13 +5785,13 @@
         <v>71</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>71</v>
@@ -5801,10 +5805,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -5815,7 +5819,7 @@
         <v>72</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>71</v>
@@ -5827,13 +5831,13 @@
         <v>71</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -5884,13 +5888,13 @@
         <v>71</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>71</v>
@@ -5904,10 +5908,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -5930,13 +5934,13 @@
         <v>71</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -5987,7 +5991,7 @@
         <v>71</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>72</v>
@@ -5999,7 +6003,7 @@
         <v>71</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>71</v>
@@ -6007,10 +6011,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6021,7 +6025,7 @@
         <v>72</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>71</v>
@@ -6033,13 +6037,13 @@
         <v>71</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6090,13 +6094,13 @@
         <v>71</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>71</v>
@@ -6105,19 +6109,19 @@
         <v>71</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -6136,16 +6140,16 @@
         <v>71</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -6183,19 +6187,19 @@
         <v>71</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>72</v>
@@ -6207,22 +6211,22 @@
         <v>71</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -6235,25 +6239,25 @@
         <v>71</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>71</v>
@@ -6302,7 +6306,7 @@
         <v>71</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>72</v>
@@ -6314,18 +6318,18 @@
         <v>71</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6336,7 +6340,7 @@
         <v>72</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>71</v>
@@ -6348,13 +6352,13 @@
         <v>71</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -6405,13 +6409,13 @@
         <v>71</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>71</v>
@@ -6425,10 +6429,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6439,7 +6443,7 @@
         <v>72</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>71</v>
@@ -6451,13 +6455,13 @@
         <v>71</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -6508,13 +6512,13 @@
         <v>71</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>71</v>
@@ -6528,10 +6532,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -6554,13 +6558,13 @@
         <v>71</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -6611,7 +6615,7 @@
         <v>71</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>72</v>
@@ -6631,10 +6635,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -6642,10 +6646,10 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>71</v>
@@ -6657,13 +6661,13 @@
         <v>71</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -6714,13 +6718,13 @@
         <v>71</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>71</v>
@@ -6734,10 +6738,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -6748,7 +6752,7 @@
         <v>72</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>71</v>
@@ -6760,13 +6764,13 @@
         <v>71</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -6817,13 +6821,13 @@
         <v>71</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>71</v>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1810" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="194">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -241,26 +241,59 @@
 </t>
   </si>
   <si>
-    <t>Base for all elements</t>
-  </si>
-  <si>
     <t>Logical model describing the model for the prescription referral. This draft is used in the HL7 Belgian workgroup for referral.</t>
   </si>
   <si>
-    <t>Element</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
+    <t>Base</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.recordedDate</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.id</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>When this prescription was created</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.recordedDate</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.prescriber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference
+</t>
+  </si>
+  <si>
+    <t>The prescribing healthcare party</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.prescriber</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.co-prescriber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Information about co prescribers</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.co-prescriber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.co-prescriber.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -276,7 +309,10 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>BePhysiotherapyPrescription.extension</t>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.co-prescriber.extension</t>
   </si>
   <si>
     <t>extensions
@@ -313,77 +349,6 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>BePhysiotherapyPrescription.recordedDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>When this prescription was created</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.recordedDate</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.recorder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference
-</t>
-  </si>
-  <si>
-    <t>The person who is responsable for the content, not necessarily the person who entered the content. This is either the prescriber, a co-prescriber or a performer</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.recorder</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.prescriber</t>
-  </si>
-  <si>
-    <t>The prescribing healthcare party</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.prescriber</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.co-prescriberNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positiveInt
-</t>
-  </si>
-  <si>
-    <t>Number of co-prescribers that must sign the prescription to activate it</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.co-prescriberNumber</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.co-prescriber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Information about co prescribers</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.co-prescriber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.co-prescriber.id</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.co-prescriber.extension</t>
-  </si>
-  <si>
     <t>BePhysiotherapyPrescription.co-prescriber.modifierExtension</t>
   </si>
   <si>
@@ -441,15 +406,6 @@
     <t>BeReferralPrescription.co-prescriber.status</t>
   </si>
   <si>
-    <t>BePhysiotherapyPrescription.co-prescriber.required</t>
-  </si>
-  <si>
-    <t>Type of mandatory for the signature of the co-prescriber (1= required: the co-prescriber SHALL sign to make the prescription valid, 2= conditionally required: the co-prescriber SHALL sign if the number of co-prescribers with a signature is lower than the number in co-prescriber number 3= optional: the signature does not affect the validity of the prescription, but is for information only</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.co-prescriber.required</t>
-  </si>
-  <si>
     <t>BePhysiotherapyPrescription.patient</t>
   </si>
   <si>
@@ -472,317 +428,182 @@
     <t>BeReferralPrescription.prescriptionNumber</t>
   </si>
   <si>
-    <t>BePhysiotherapyPrescription.pssNumber</t>
-  </si>
-  <si>
-    <t>An identifier for the Prescription Search Support</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.pssNumber</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.pssRejectionReason</t>
+    <t>BePhysiotherapyPrescription.basedOn</t>
+  </si>
+  <si>
+    <t>The original request or prescription triggered this prescription</t>
+  </si>
+  <si>
+    <t>The original request or prescription that is the reason for this request - for example when a detailed request is created by a broader request.</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.basedOn</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.validitionPeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Period of validity of prescription</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.validitionPeriod</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.treatmentPeriod</t>
+  </si>
+  <si>
+    <t>When this prescription is executed, available after start of execution</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentPeriod</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.treatmentValidationEndDate</t>
+  </si>
+  <si>
+    <t>The latest moment to end this treatment</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentValidationEndDate</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.intendedProvider</t>
+  </si>
+  <si>
+    <t>The intended provider, i.e. who is expected to perform the procedure - a specific person or a speciality</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedProvider</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.intendedProvider.id</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.intendedProvider.extension</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.intendedProvider.modifierExtension</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.intendedProvider.provider</t>
+  </si>
+  <si>
+    <t>A reference to the provider party (e.g. a NIHDI number for a healthcare professional, a SSIN or only a displaystring for a non professional caregiver,...)</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedProvider.provider</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.intendedProvider.discipline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>The required discipline of the provider party</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedProvider.discipline</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.serviceRequested</t>
+  </si>
+  <si>
+    <t>What is prescribed</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.serviceRequested</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.problemCode</t>
+  </si>
+  <si>
+    <t>The problem (code or reference) that is the main reason for this prescription</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.problemCode</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.supportingInfo</t>
+  </si>
+  <si>
+    <t>Care Set Problem</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.supportingInfo</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.resultReceiver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>True if the prescriber wants feedback. Other caregivers can be mentioned in the note</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.resultReceiver</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.status</t>
+  </si>
+  <si>
+    <t>Current status</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-status</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.status</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.statusReason</t>
+  </si>
+  <si>
+    <t>Reason current status</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.statusReason</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.bodySite</t>
+  </si>
+  <si>
+    <t>Anatomical place where the treatment should be executed</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.bodySite</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.note</t>
   </si>
   <si>
     <t xml:space="preserve">Annotation
 </t>
   </si>
   <si>
-    <t>Reason for not following the PSS suggestion</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.pssRejectionReason</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.groupIdentifier</t>
-  </si>
-  <si>
-    <t>An identifier for the bundle this prescription belongs to.</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.groupIdentifier</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.basedOn</t>
-  </si>
-  <si>
-    <t>The original request or prescription triggered this prescription</t>
-  </si>
-  <si>
-    <t>The original request or prescription that is the reason for this request - for example when a detailed request is created by a broader request.</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.basedOn</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.validitionPeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Period of validity of prescription</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.validitionPeriod</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.treatmentPeriod</t>
-  </si>
-  <si>
-    <t>When this prescription is executed, available after start of execution</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.treatmentPeriod</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.treatmentValidationEndDate</t>
-  </si>
-  <si>
-    <t>The latest moment to end this treatment</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.treatmentValidationEndDate</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.creationEndDate</t>
-  </si>
-  <si>
-    <t>The prescription must have left the draft status before</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.creationEndDate</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.intendedPerformer</t>
-  </si>
-  <si>
-    <t>The intended provider, i.e. who is expected to perform the procedure - a specific person or a speciality</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.intendedPerformer.id</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.intendedPerformer.extension</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.intendedPerformer.modifierExtension</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.intendedPerformer.performer</t>
-  </si>
-  <si>
-    <t>A reference to the provider party (e.g. a NIHDI number for a healthcare professional, a SSIN or only a displaystring for a non professional caregiver,...)</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer.performer</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.intendedPerformer.discipline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>The required discipline of the provider party</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer.discipline</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.intendedPerformer.period</t>
-  </si>
-  <si>
-    <t>Start and enddate for the particular provider</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer.period</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.intendedPerformer.organization</t>
-  </si>
-  <si>
-    <t>Reference to an organization that will add the performer</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer.organization</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.intendedPerformer.executionPeriod</t>
-  </si>
-  <si>
-    <t>Period in which the caregiver executes the treatment</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer.executionPeriod</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.intendedPerformer.status</t>
-  </si>
-  <si>
-    <t>Status of the action executed by the performer</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer.status</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.intendedPerformer.statusReason</t>
-  </si>
-  <si>
-    <t>The reason of the status of the action executed by the performer</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.intendedPerformer.statusReason</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.serviceRequested</t>
-  </si>
-  <si>
-    <t>What is prescribed</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.serviceRequested</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.serviceRequestedDetail</t>
-  </si>
-  <si>
-    <t>More detailed specification of the prescribed act</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.serviceRequestedDetail</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.problemCode</t>
-  </si>
-  <si>
-    <t>The problem (code or reference) that is the main reason for this prescription</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.problemCode</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.supportingInfo</t>
-  </si>
-  <si>
-    <t>Care Set Problem</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.supportingInfo</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.resultReceiver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>True if the prescriber wants feedback. Other caregivers can be mentioned in the note</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.resultReceiver</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.status</t>
-  </si>
-  <si>
-    <t>Current status</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-status</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.status</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.statusReason</t>
-  </si>
-  <si>
-    <t>Reason current status</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.statusReason</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.treatmentStatus</t>
-  </si>
-  <si>
-    <t>Status of the treatment</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.treatmentStatus</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.treatmentStatusReason</t>
-  </si>
-  <si>
-    <t>Reason treatment status</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.treatmentStatusReason</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.bodyLocation</t>
-  </si>
-  <si>
-    <t>Place where the treatment should be executed</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.bodyLocation</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.bodyLocation.id</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.bodyLocation.extension</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.bodyLocation.modifierExtension</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.bodyLocation.bodySite</t>
-  </si>
-  <si>
-    <t>Anatomical place where the treatment should be executed</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.bodyLocation.bodySite</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.bodyLocation.bodyLaterality</t>
-  </si>
-  <si>
-    <t>Side of the body</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.bodyLocation.bodyLaterality</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.note</t>
-  </si>
-  <si>
     <t>Additional text notes about the request.</t>
   </si>
   <si>
     <t>BeReferralPrescription.note</t>
   </si>
   <si>
-    <t>BePhysiotherapyPrescription.prescriptionType</t>
+    <t>BePhysiotherapyPrescription.intent</t>
   </si>
   <si>
     <t>Proposal, Prolongation, Prescription</t>
   </si>
   <si>
-    <t>BeReferralPrescription.prescriptionType</t>
+    <t>BeReferralPrescription.intent</t>
   </si>
   <si>
     <t>BePhysiotherapyPrescription.numberOfSessions</t>
@@ -1101,7 +922,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK55"/>
+  <dimension ref="A1:AK33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1110,8 +931,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="62.484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="62.484375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="60.9296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="60.9296875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -1141,7 +962,7 @@
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="54.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="51.51171875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
@@ -1291,11 +1112,9 @@
       <c r="K2" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="L2" s="2"/>
+      <c r="M2" t="s" s="2">
         <v>75</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1346,7 +1165,7 @@
         <v>71</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>72</v>
@@ -1355,21 +1174,21 @@
         <v>73</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1377,10 +1196,10 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>71</v>
@@ -1392,13 +1211,13 @@
         <v>71</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1449,13 +1268,13 @@
         <v>71</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>71</v>
@@ -1464,26 +1283,26 @@
         <v>71</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>71</v>
@@ -1495,17 +1314,15 @@
         <v>71</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>91</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
         <v>71</v>
@@ -1542,42 +1359,42 @@
         <v>71</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1585,10 +1402,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>71</v>
@@ -1600,13 +1417,13 @@
         <v>71</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1657,19 +1474,19 @@
         <v>71</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>71</v>
@@ -1677,10 +1494,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1688,10 +1505,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>71</v>
@@ -1703,13 +1520,13 @@
         <v>71</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1760,13 +1577,13 @@
         <v>71</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>71</v>
@@ -1775,26 +1592,26 @@
         <v>71</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>71</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>71</v>
@@ -1806,15 +1623,17 @@
         <v>71</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="N7" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L7" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
         <v>71</v>
@@ -1851,34 +1670,34 @@
         <v>71</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="AD7" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="AG7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>71</v>
-      </c>
       <c r="AK7" t="s" s="2">
-        <v>71</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
@@ -1890,35 +1709,39 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>71</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="O8" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="P8" t="s" s="2">
         <v>71</v>
       </c>
@@ -1966,30 +1789,30 @@
         <v>71</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>71</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2000,7 +1823,7 @@
         <v>72</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>71</v>
@@ -2012,13 +1835,13 @@
         <v>71</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2069,19 +1892,19 @@
         <v>71</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>71</v>
@@ -2089,10 +1912,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2103,7 +1926,7 @@
         <v>72</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>71</v>
@@ -2115,13 +1938,13 @@
         <v>71</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2172,13 +1995,13 @@
         <v>71</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>71</v>
@@ -2187,26 +2010,26 @@
         <v>71</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>72</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>71</v>
@@ -2218,17 +2041,15 @@
         <v>71</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>91</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>71</v>
@@ -2265,78 +2086,74 @@
         <v>71</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="AD11" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>71</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>124</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>71</v>
       </c>
@@ -2384,30 +2201,30 @@
         <v>71</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>126</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2418,7 +2235,7 @@
         <v>72</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>71</v>
@@ -2430,13 +2247,13 @@
         <v>71</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2487,13 +2304,13 @@
         <v>71</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>71</v>
@@ -2507,10 +2324,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2518,10 +2335,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>71</v>
@@ -2533,13 +2350,13 @@
         <v>71</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2590,13 +2407,13 @@
         <v>71</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>71</v>
@@ -2610,10 +2427,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2621,10 +2438,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>71</v>
@@ -2636,13 +2453,13 @@
         <v>71</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2693,13 +2510,13 @@
         <v>71</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>71</v>
@@ -2713,10 +2530,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2724,10 +2541,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>71</v>
@@ -2739,13 +2556,13 @@
         <v>71</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2796,13 +2613,13 @@
         <v>71</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>71</v>
@@ -2816,10 +2633,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2827,10 +2644,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>71</v>
@@ -2842,13 +2659,13 @@
         <v>71</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2899,13 +2716,13 @@
         <v>71</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>71</v>
@@ -2919,10 +2736,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2930,10 +2747,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>71</v>
@@ -2945,13 +2762,13 @@
         <v>71</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>144</v>
+        <v>87</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3002,19 +2819,19 @@
         <v>71</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>71</v>
@@ -3022,10 +2839,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3036,7 +2853,7 @@
         <v>72</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>71</v>
@@ -3048,13 +2865,13 @@
         <v>71</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>144</v>
+        <v>92</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3105,13 +2922,13 @@
         <v>71</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>71</v>
@@ -3120,26 +2937,26 @@
         <v>71</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>71</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>72</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>71</v>
@@ -3151,15 +2968,17 @@
         <v>71</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>152</v>
+        <v>100</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>71</v>
@@ -3196,72 +3015,78 @@
         <v>71</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>71</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>72</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>71</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>71</v>
       </c>
@@ -3309,30 +3134,30 @@
         <v>71</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>71</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3355,13 +3180,13 @@
         <v>71</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3412,7 +3237,7 @@
         <v>71</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>72</v>
@@ -3432,10 +3257,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3443,10 +3268,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>71</v>
@@ -3458,13 +3283,13 @@
         <v>71</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3515,13 +3340,13 @@
         <v>71</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>71</v>
@@ -3535,10 +3360,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3546,10 +3371,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>71</v>
@@ -3561,13 +3386,13 @@
         <v>71</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3618,13 +3443,13 @@
         <v>71</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>71</v>
@@ -3638,10 +3463,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3649,10 +3474,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>71</v>
@@ -3664,13 +3489,13 @@
         <v>71</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3721,13 +3546,13 @@
         <v>71</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>71</v>
@@ -3741,10 +3566,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3755,7 +3580,7 @@
         <v>72</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>71</v>
@@ -3767,13 +3592,13 @@
         <v>71</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3824,13 +3649,13 @@
         <v>71</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>71</v>
@@ -3844,10 +3669,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3855,10 +3680,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>71</v>
@@ -3870,13 +3695,13 @@
         <v>71</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>113</v>
+        <v>170</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -3927,19 +3752,19 @@
         <v>71</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>71</v>
@@ -3947,10 +3772,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -3961,7 +3786,7 @@
         <v>72</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>71</v>
@@ -3973,13 +3798,13 @@
         <v>71</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>84</v>
+        <v>174</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4006,13 +3831,11 @@
         <v>71</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="Y28" s="2"/>
       <c r="Z28" t="s" s="2">
-        <v>71</v>
+        <v>176</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>71</v>
@@ -4030,13 +3853,13 @@
         <v>71</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>85</v>
+        <v>177</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>71</v>
@@ -4045,7 +3868,7 @@
         <v>71</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29">
@@ -4057,14 +3880,14 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>71</v>
@@ -4076,17 +3899,15 @@
         <v>71</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>89</v>
+        <v>179</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>91</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>71</v>
@@ -4123,46 +3944,46 @@
         <v>71</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4175,26 +3996,22 @@
         <v>71</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>122</v>
+        <v>182</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>124</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>71</v>
       </c>
@@ -4242,7 +4059,7 @@
         <v>71</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>125</v>
+        <v>183</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>72</v>
@@ -4254,18 +4071,18 @@
         <v>71</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>126</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4276,7 +4093,7 @@
         <v>72</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>71</v>
@@ -4288,13 +4105,13 @@
         <v>71</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>102</v>
+        <v>185</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4345,13 +4162,13 @@
         <v>71</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>71</v>
@@ -4365,10 +4182,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4376,10 +4193,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>71</v>
@@ -4391,13 +4208,13 @@
         <v>71</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>184</v>
+        <v>120</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4448,13 +4265,13 @@
         <v>71</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>71</v>
@@ -4468,10 +4285,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4482,7 +4299,7 @@
         <v>72</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>71</v>
@@ -4494,13 +4311,13 @@
         <v>71</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4551,13 +4368,13 @@
         <v>71</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>71</v>
@@ -4566,2276 +4383,6 @@
         <v>71</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="G34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Q34" s="2"/>
-      <c r="R34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Q35" s="2"/>
-      <c r="R35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="G36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Q36" s="2"/>
-      <c r="R36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="G37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Q37" s="2"/>
-      <c r="R37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Q38" s="2"/>
-      <c r="R38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Q39" s="2"/>
-      <c r="R39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Q40" s="2"/>
-      <c r="R40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Q41" s="2"/>
-      <c r="R41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Q42" s="2"/>
-      <c r="R42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Q43" s="2"/>
-      <c r="R43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="Y43" s="2"/>
-      <c r="Z43" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Q44" s="2"/>
-      <c r="R44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Q45" s="2"/>
-      <c r="R45" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Q46" s="2"/>
-      <c r="R46" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="F47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="G47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Q47" s="2"/>
-      <c r="R47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Q48" s="2"/>
-      <c r="R48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="F49" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="K49" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="O49" s="2"/>
-      <c r="P49" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Q49" s="2"/>
-      <c r="R49" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="E50" s="2"/>
-      <c r="F50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="P50" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Q50" s="2"/>
-      <c r="R50" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Q51" s="2"/>
-      <c r="R51" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Q52" s="2"/>
-      <c r="R52" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Q53" s="2"/>
-      <c r="R53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Q54" s="2"/>
-      <c r="R54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Q55" s="2"/>
-      <c r="R55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK55" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1810" uniqueCount="253">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -241,16 +241,79 @@
 </t>
   </si>
   <si>
+    <t>Base for all elements</t>
+  </si>
+  <si>
     <t>Logical model describing the model for the prescription referral. This draft is used in the HL7 Belgian workgroup for referral.</t>
   </si>
   <si>
-    <t>Base</t>
+    <t>Element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>BePhysiotherapyPrescription.recordedDate</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t xml:space="preserve">dateTime
@@ -263,17 +326,39 @@
     <t>BeReferralPrescription.recordedDate</t>
   </si>
   <si>
-    <t>BePhysiotherapyPrescription.prescriber</t>
+    <t>BePhysiotherapyPrescription.recorder</t>
   </si>
   <si>
     <t xml:space="preserve">Reference
 </t>
   </si>
   <si>
+    <t>The person who is responsable for the content, not necessarily the person who entered the content. This is either the prescriber, a co-prescriber or a performer</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.recorder</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.prescriber</t>
+  </si>
+  <si>
     <t>The prescribing healthcare party</t>
   </si>
   <si>
     <t>BeReferralPrescription.prescriber</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.co-prescriberNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt
+</t>
+  </si>
+  <si>
+    <t>Number of co-prescribers that must sign the prescription to activate it</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.co-prescriberNumber</t>
   </si>
   <si>
     <t>BePhysiotherapyPrescription.co-prescriber</t>
@@ -296,57 +381,7 @@
     <t>BePhysiotherapyPrescription.co-prescriber.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>BePhysiotherapyPrescription.co-prescriber.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>BePhysiotherapyPrescription.co-prescriber.modifierExtension</t>
@@ -406,6 +441,15 @@
     <t>BeReferralPrescription.co-prescriber.status</t>
   </si>
   <si>
+    <t>BePhysiotherapyPrescription.co-prescriber.required</t>
+  </si>
+  <si>
+    <t>Type of mandatory for the signature of the co-prescriber (1= required: the co-prescriber SHALL sign to make the prescription valid, 2= conditionally required: the co-prescriber SHALL sign if the number of co-prescribers with a signature is lower than the number in co-prescriber number 3= optional: the signature does not affect the validity of the prescription, but is for information only</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.co-prescriber.required</t>
+  </si>
+  <si>
     <t>BePhysiotherapyPrescription.patient</t>
   </si>
   <si>
@@ -428,6 +472,37 @@
     <t>BeReferralPrescription.prescriptionNumber</t>
   </si>
   <si>
+    <t>BePhysiotherapyPrescription.pssNumber</t>
+  </si>
+  <si>
+    <t>An identifier for the Prescription Search Support</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.pssNumber</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.pssRejectionReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotation
+</t>
+  </si>
+  <si>
+    <t>Reason for not following the PSS suggestion</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.pssRejectionReason</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.groupIdentifier</t>
+  </si>
+  <si>
+    <t>An identifier for the bundle this prescription belongs to.</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.groupIdentifier</t>
+  </si>
+  <si>
     <t>BePhysiotherapyPrescription.basedOn</t>
   </si>
   <si>
@@ -471,34 +546,43 @@
     <t>BeReferralPrescription.treatmentValidationEndDate</t>
   </si>
   <si>
-    <t>BePhysiotherapyPrescription.intendedProvider</t>
+    <t>BePhysiotherapyPrescription.creationEndDate</t>
+  </si>
+  <si>
+    <t>The prescription must have left the draft status before</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.creationEndDate</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.intendedPerformer</t>
   </si>
   <si>
     <t>The intended provider, i.e. who is expected to perform the procedure - a specific person or a speciality</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedProvider</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.intendedProvider.id</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.intendedProvider.extension</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.intendedProvider.modifierExtension</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.intendedProvider.provider</t>
+    <t>BeReferralPrescription.intendedPerformer</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.intendedPerformer.id</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.intendedPerformer.extension</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.intendedPerformer.modifierExtension</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.intendedPerformer.performer</t>
   </si>
   <si>
     <t>A reference to the provider party (e.g. a NIHDI number for a healthcare professional, a SSIN or only a displaystring for a non professional caregiver,...)</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedProvider.provider</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.intendedProvider.discipline</t>
+    <t>BeReferralPrescription.intendedPerformer.performer</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.intendedPerformer.discipline</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
@@ -508,7 +592,52 @@
     <t>The required discipline of the provider party</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedProvider.discipline</t>
+    <t>BeReferralPrescription.intendedPerformer.discipline</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.intendedPerformer.period</t>
+  </si>
+  <si>
+    <t>Start and enddate for the particular provider</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.period</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.intendedPerformer.organization</t>
+  </si>
+  <si>
+    <t>Reference to an organization that will add the performer</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.organization</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.intendedPerformer.executionPeriod</t>
+  </si>
+  <si>
+    <t>Period in which the caregiver executes the treatment</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.executionPeriod</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.intendedPerformer.status</t>
+  </si>
+  <si>
+    <t>Status of the action executed by the performer</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.status</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.intendedPerformer.statusReason</t>
+  </si>
+  <si>
+    <t>The reason of the status of the action executed by the performer</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.intendedPerformer.statusReason</t>
   </si>
   <si>
     <t>BePhysiotherapyPrescription.serviceRequested</t>
@@ -518,6 +647,15 @@
   </si>
   <si>
     <t>BeReferralPrescription.serviceRequested</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.serviceRequestedDetail</t>
+  </si>
+  <si>
+    <t>More detailed specification of the prescribed act</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.serviceRequestedDetail</t>
   </si>
   <si>
     <t>BePhysiotherapyPrescription.problemCode</t>
@@ -575,35 +713,76 @@
     <t>BeReferralPrescription.statusReason</t>
   </si>
   <si>
-    <t>BePhysiotherapyPrescription.bodySite</t>
+    <t>BePhysiotherapyPrescription.treatmentStatus</t>
+  </si>
+  <si>
+    <t>Status of the treatment</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentStatus</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.treatmentStatusReason</t>
+  </si>
+  <si>
+    <t>Reason treatment status</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.treatmentStatusReason</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.bodyLocation</t>
+  </si>
+  <si>
+    <t>Place where the treatment should be executed</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.bodyLocation</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.bodyLocation.id</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.bodyLocation.extension</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.bodyLocation.modifierExtension</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.bodyLocation.bodySite</t>
   </si>
   <si>
     <t>Anatomical place where the treatment should be executed</t>
   </si>
   <si>
-    <t>BeReferralPrescription.bodySite</t>
+    <t>BeReferralPrescription.bodyLocation.bodySite</t>
+  </si>
+  <si>
+    <t>BePhysiotherapyPrescription.bodyLocation.bodyLaterality</t>
+  </si>
+  <si>
+    <t>Side of the body</t>
+  </si>
+  <si>
+    <t>BeReferralPrescription.bodyLocation.bodyLaterality</t>
   </si>
   <si>
     <t>BePhysiotherapyPrescription.note</t>
   </si>
   <si>
-    <t xml:space="preserve">Annotation
-</t>
-  </si>
-  <si>
     <t>Additional text notes about the request.</t>
   </si>
   <si>
     <t>BeReferralPrescription.note</t>
   </si>
   <si>
-    <t>BePhysiotherapyPrescription.intent</t>
+    <t>BePhysiotherapyPrescription.prescriptionType</t>
   </si>
   <si>
     <t>Proposal, Prolongation, Prescription</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intent</t>
+    <t>BeReferralPrescription.prescriptionType</t>
   </si>
   <si>
     <t>BePhysiotherapyPrescription.numberOfSessions</t>
@@ -922,7 +1101,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK33"/>
+  <dimension ref="A1:AK55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -931,8 +1110,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="60.9296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="60.9296875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="62.484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="62.484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -962,7 +1141,7 @@
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="51.51171875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="54.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
@@ -1112,9 +1291,11 @@
       <c r="K2" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="L2" s="2"/>
+      <c r="L2" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="M2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1165,7 +1346,7 @@
         <v>71</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>72</v>
@@ -1174,21 +1355,21 @@
         <v>73</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1196,10 +1377,10 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>71</v>
@@ -1211,13 +1392,13 @@
         <v>71</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1268,13 +1449,13 @@
         <v>71</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>71</v>
@@ -1283,26 +1464,26 @@
         <v>71</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>71</v>
@@ -1314,15 +1495,17 @@
         <v>71</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="N4" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
         <v>71</v>
@@ -1359,42 +1542,42 @@
         <v>71</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1402,10 +1585,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>71</v>
@@ -1417,13 +1600,13 @@
         <v>71</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1474,19 +1657,19 @@
         <v>71</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>71</v>
@@ -1494,10 +1677,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1505,10 +1688,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>71</v>
@@ -1520,13 +1703,13 @@
         <v>71</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1577,13 +1760,13 @@
         <v>71</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>71</v>
@@ -1592,26 +1775,26 @@
         <v>71</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>96</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>71</v>
@@ -1623,17 +1806,15 @@
         <v>71</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
         <v>71</v>
@@ -1670,34 +1851,34 @@
         <v>71</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="AD7" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>96</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8">
@@ -1709,39 +1890,35 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>71</v>
       </c>
       <c r="I8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="J8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="K8" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="O8" t="s" s="2">
-        <v>113</v>
-      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
         <v>71</v>
       </c>
@@ -1789,30 +1966,30 @@
         <v>71</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>115</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1823,7 +2000,7 @@
         <v>72</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>71</v>
@@ -1835,13 +2012,13 @@
         <v>71</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1892,19 +2069,19 @@
         <v>71</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>71</v>
@@ -1912,10 +2089,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1926,7 +2103,7 @@
         <v>72</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>71</v>
@@ -1938,13 +2115,13 @@
         <v>71</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1995,13 +2172,13 @@
         <v>71</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>71</v>
@@ -2010,26 +2187,26 @@
         <v>71</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>72</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>71</v>
@@ -2041,15 +2218,17 @@
         <v>71</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>71</v>
@@ -2086,74 +2265,78 @@
         <v>71</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="AD11" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>71</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>124</v>
+      </c>
       <c r="P12" t="s" s="2">
         <v>71</v>
       </c>
@@ -2201,30 +2384,30 @@
         <v>71</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>71</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2235,7 +2418,7 @@
         <v>72</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>71</v>
@@ -2247,13 +2430,13 @@
         <v>71</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2304,13 +2487,13 @@
         <v>71</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>71</v>
@@ -2324,10 +2507,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2335,10 +2518,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>71</v>
@@ -2350,13 +2533,13 @@
         <v>71</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2407,13 +2590,13 @@
         <v>71</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>71</v>
@@ -2427,10 +2610,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2438,10 +2621,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>71</v>
@@ -2453,13 +2636,13 @@
         <v>71</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2510,13 +2693,13 @@
         <v>71</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>71</v>
@@ -2530,10 +2713,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2541,10 +2724,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>71</v>
@@ -2556,13 +2739,13 @@
         <v>71</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="L16" t="s" s="2">
-        <v>142</v>
-      </c>
       <c r="M16" t="s" s="2">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2613,13 +2796,13 @@
         <v>71</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>71</v>
@@ -2633,10 +2816,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2644,10 +2827,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>71</v>
@@ -2659,13 +2842,13 @@
         <v>71</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2716,13 +2899,13 @@
         <v>71</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>71</v>
@@ -2736,10 +2919,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2747,10 +2930,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>71</v>
@@ -2762,13 +2945,13 @@
         <v>71</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>87</v>
+        <v>144</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2819,19 +3002,19 @@
         <v>71</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>71</v>
@@ -2839,10 +3022,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2853,7 +3036,7 @@
         <v>72</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>71</v>
@@ -2865,13 +3048,13 @@
         <v>71</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>93</v>
+        <v>148</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2922,13 +3105,13 @@
         <v>71</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>71</v>
@@ -2937,26 +3120,26 @@
         <v>71</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>96</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>72</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>71</v>
@@ -2968,17 +3151,15 @@
         <v>71</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>99</v>
+        <v>151</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>71</v>
@@ -3015,78 +3196,72 @@
         <v>71</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>96</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>72</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>71</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>71</v>
       </c>
@@ -3134,30 +3309,30 @@
         <v>71</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>115</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3180,13 +3355,13 @@
         <v>71</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3237,7 +3412,7 @@
         <v>71</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>72</v>
@@ -3257,10 +3432,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3268,10 +3443,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>71</v>
@@ -3283,13 +3458,13 @@
         <v>71</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3340,13 +3515,13 @@
         <v>71</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>71</v>
@@ -3360,10 +3535,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3371,10 +3546,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>71</v>
@@ -3386,13 +3561,13 @@
         <v>71</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3443,13 +3618,13 @@
         <v>71</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>71</v>
@@ -3463,10 +3638,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3474,10 +3649,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>71</v>
@@ -3489,13 +3664,13 @@
         <v>71</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3546,13 +3721,13 @@
         <v>71</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>71</v>
@@ -3566,10 +3741,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3580,7 +3755,7 @@
         <v>72</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>71</v>
@@ -3592,13 +3767,13 @@
         <v>71</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3649,13 +3824,13 @@
         <v>71</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>71</v>
@@ -3669,10 +3844,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3680,10 +3855,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>71</v>
@@ -3695,13 +3870,13 @@
         <v>71</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>170</v>
+        <v>113</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -3752,19 +3927,19 @@
         <v>71</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>71</v>
@@ -3772,10 +3947,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -3786,7 +3961,7 @@
         <v>72</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>71</v>
@@ -3798,13 +3973,13 @@
         <v>71</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>174</v>
+        <v>83</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>174</v>
+        <v>84</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -3831,11 +4006,13 @@
         <v>71</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="Y28" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="Z28" t="s" s="2">
-        <v>176</v>
+        <v>71</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>71</v>
@@ -3853,13 +4030,13 @@
         <v>71</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>177</v>
+        <v>85</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>71</v>
@@ -3868,7 +4045,7 @@
         <v>71</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29">
@@ -3880,14 +4057,14 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>71</v>
@@ -3899,15 +4076,17 @@
         <v>71</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>157</v>
+        <v>88</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>179</v>
+        <v>89</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>71</v>
@@ -3944,46 +4123,46 @@
         <v>71</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>180</v>
+        <v>95</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -3996,22 +4175,26 @@
         <v>71</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>157</v>
+        <v>88</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>182</v>
+        <v>122</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>124</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>71</v>
       </c>
@@ -4059,7 +4242,7 @@
         <v>71</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>72</v>
@@ -4071,18 +4254,18 @@
         <v>71</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>71</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4093,7 +4276,7 @@
         <v>72</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>71</v>
@@ -4105,13 +4288,13 @@
         <v>71</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>185</v>
+        <v>102</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4162,13 +4345,13 @@
         <v>71</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>71</v>
@@ -4182,10 +4365,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4193,10 +4376,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>71</v>
@@ -4208,13 +4391,13 @@
         <v>71</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>120</v>
+        <v>184</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4265,13 +4448,13 @@
         <v>71</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>71</v>
@@ -4285,10 +4468,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4299,7 +4482,7 @@
         <v>72</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>71</v>
@@ -4311,13 +4494,13 @@
         <v>71</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4368,21 +4551,2291 @@
         <v>71</v>
       </c>
       <c r="AF33" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AG33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK33" t="s" s="2">
+      <c r="M34" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q34" s="2"/>
+      <c r="R34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q35" s="2"/>
+      <c r="R35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q36" s="2"/>
+      <c r="R36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q37" s="2"/>
+      <c r="R37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q38" s="2"/>
+      <c r="R38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q39" s="2"/>
+      <c r="R39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q41" s="2"/>
+      <c r="R41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q42" s="2"/>
+      <c r="R42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="Y43" s="2"/>
+      <c r="Z43" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q44" s="2"/>
+      <c r="R44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q45" s="2"/>
+      <c r="R45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="O49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="P50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK55" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/StructureDefinition-be-model-physiotherapyprescription.xlsx
+++ b/StructureDefinition-be-model-physiotherapyprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1810" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="250">
   <si>
     <t>Property</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>be-model-physiotherapyprescription</t>
   </si>
   <si>
     <t/>
@@ -241,26 +244,81 @@
 </t>
   </si>
   <si>
-    <t>Base for all elements</t>
-  </si>
-  <si>
     <t>Logical model describing the model for the prescription referral. This draft is used in the HL7 Belgian workgroup for referral.</t>
   </si>
   <si>
-    <t>Element</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
+    <t>Base</t>
+  </si>
+  <si>
+    <t>be-model-physiotherapyprescription.recordedDate</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.id</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>When this prescription was created</t>
+  </si>
+  <si>
+    <t>be-model-referralprescription.recordedDate</t>
+  </si>
+  <si>
+    <t>be-model-physiotherapyprescription.recorder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference
+</t>
+  </si>
+  <si>
+    <t>The person who is responsable for the content, not necessarily the person who entered the content. This is either the prescriber, a co-prescriber or a performer</t>
+  </si>
+  <si>
+    <t>be-model-referralprescription.recorder</t>
+  </si>
+  <si>
+    <t>be-model-physiotherapyprescription.prescriber</t>
+  </si>
+  <si>
+    <t>The prescribing healthcare party</t>
+  </si>
+  <si>
+    <t>be-model-referralprescription.prescriber</t>
+  </si>
+  <si>
+    <t>be-model-physiotherapyprescription.co-prescriberNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt
+</t>
+  </si>
+  <si>
+    <t>Number of co-prescribers that must sign the prescription to activate it</t>
+  </si>
+  <si>
+    <t>be-model-referralprescription.co-prescriberNumber</t>
+  </si>
+  <si>
+    <t>be-model-physiotherapyprescription.co-prescriber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Information about co prescribers</t>
+  </si>
+  <si>
+    <t>be-model-referralprescription.co-prescriber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>be-model-physiotherapyprescription.co-prescriber.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -276,7 +334,10 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>BePhysiotherapyPrescription.extension</t>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>be-model-physiotherapyprescription.co-prescriber.extension</t>
   </si>
   <si>
     <t>extensions
@@ -313,78 +374,7 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>BePhysiotherapyPrescription.recordedDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>When this prescription was created</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.recordedDate</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.recorder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference
-</t>
-  </si>
-  <si>
-    <t>The person who is responsable for the content, not necessarily the person who entered the content. This is either the prescriber, a co-prescriber or a performer</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.recorder</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.prescriber</t>
-  </si>
-  <si>
-    <t>The prescribing healthcare party</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.prescriber</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.co-prescriberNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positiveInt
-</t>
-  </si>
-  <si>
-    <t>Number of co-prescribers that must sign the prescription to activate it</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.co-prescriberNumber</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.co-prescriber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Information about co prescribers</t>
-  </si>
-  <si>
-    <t>BeReferralPrescription.co-prescriber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.co-prescriber.id</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.co-prescriber.extension</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.co-prescriber.modifierExtension</t>
+    <t>be-model-physiotherapyprescription.co-prescriber.modifierExtension</t>
   </si>
   <si>
     <t>extensions
@@ -410,16 +400,16 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>BePhysiotherapyPrescription.co-prescriber.co-prescriber</t>
+    <t>be-model-physiotherapyprescription.co-prescriber.co-prescriber</t>
   </si>
   <si>
     <t>The co-prescriber party</t>
   </si>
   <si>
-    <t>BeReferralPrescription.co-prescriber.co-prescriber</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.co-prescriber.co-prescriberType</t>
+    <t>be-model-referralprescription.co-prescriber.co-prescriber</t>
+  </si>
+  <si>
+    <t>be-model-physiotherapyprescription.co-prescriber.co-prescriberType</t>
   </si>
   <si>
     <t xml:space="preserve">code
@@ -429,37 +419,37 @@
     <t>Type of the practitioner</t>
   </si>
   <si>
-    <t>BeReferralPrescription.co-prescriber.co-prescriberType</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.co-prescriber.status</t>
+    <t>be-model-referralprescription.co-prescriber.co-prescriberType</t>
+  </si>
+  <si>
+    <t>be-model-physiotherapyprescription.co-prescriber.status</t>
   </si>
   <si>
     <t>Status of co prescribing status (to sign, signed or refused)</t>
   </si>
   <si>
-    <t>BeReferralPrescription.co-prescriber.status</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.co-prescriber.required</t>
+    <t>be-model-referralprescription.co-prescriber.status</t>
+  </si>
+  <si>
+    <t>be-model-physiotherapyprescription.co-prescriber.required</t>
   </si>
   <si>
     <t>Type of mandatory for the signature of the co-prescriber (1= required: the co-prescriber SHALL sign to make the prescription valid, 2= conditionally required: the co-prescriber SHALL sign if the number of co-prescribers with a signature is lower than the number in co-prescriber number 3= optional: the signature does not affect the validity of the prescription, but is for information only</t>
   </si>
   <si>
-    <t>BeReferralPrescription.co-prescriber.required</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.patient</t>
+    <t>be-model-referralprescription.co-prescriber.required</t>
+  </si>
+  <si>
+    <t>be-model-physiotherapyprescription.patient</t>
   </si>
   <si>
     <t>The SSIN of the person for which the referral is prescribed.</t>
   </si>
   <si>
-    <t>BeReferralPrescription.patient</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.prescriptionNumber</t>
+    <t>be-model-referralprescription.patient</t>
+  </si>
+  <si>
+    <t>be-model-physiotherapyprescription.prescriptionNumber</t>
   </si>
   <si>
     <t xml:space="preserve">Identifier
@@ -469,19 +459,19 @@
     <t>An identifier for the ReferralPrescription, e.g. the UHMEP identifier, once available</t>
   </si>
   <si>
-    <t>BeReferralPrescription.prescriptionNumber</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.pssNumber</t>
+    <t>be-model-referralprescription.prescriptionNumber</t>
+  </si>
+  <si>
+    <t>be-model-physiotherapyprescription.pssNumber</t>
   </si>
   <si>
     <t>An identifier for the Prescription Search Support</t>
   </si>
   <si>
-    <t>BeReferralPrescription.pssNumber</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.pssRejectionReason</t>
+    <t>be-model-referralprescription.pssNumber</t>
+  </si>
+  <si>
+    <t>be-model-physiotherapyprescription.pssRejectionReason</t>
   </si>
   <si>
     <t xml:space="preserve">Annotation
@@ -491,19 +481,19 @@
     <t>Reason for not following the PSS suggestion</t>
   </si>
   <si>
-    <t>BeReferralPrescription.pssRejectionReason</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.groupIdentifier</t>
+    <t>be-model-referralprescription.pssRejectionReason</t>
+  </si>
+  <si>
+    <t>be-model-physiotherapyprescription.groupIdentifier</t>
   </si>
   <si>
     <t>An identifier for the bundle this prescription belongs to.</t>
   </si>
   <si>
-    <t>BeReferralPrescription.groupIdentifier</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.basedOn</t>
+    <t>be-model-referralprescription.groupIdentifier</t>
+  </si>
+  <si>
+    <t>be-model-physiotherapyprescription.basedOn</t>
   </si>
   <si>
     <t>The original request or prescription triggered this prescription</t>
@@ -512,10 +502,10 @@
     <t>The original request or prescription that is the reason for this request - for example when a detailed request is created by a broader request.</t>
   </si>
   <si>
-    <t>BeReferralPrescription.basedOn</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.validitionPeriod</t>
+    <t>be-model-referralprescription.basedOn</t>
+  </si>
+  <si>
+    <t>be-model-physiotherapyprescription.validitionPeriod</t>
   </si>
   <si>
     <t xml:space="preserve">Period
@@ -525,64 +515,64 @@
     <t>Period of validity of prescription</t>
   </si>
   <si>
-    <t>BeReferralPrescription.validitionPeriod</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.treatmentPeriod</t>
+    <t>be-model-referralprescription.validitionPeriod</t>
+  </si>
+  <si>
+    <t>be-model-physiotherapyprescription.treatmentPeriod</t>
   </si>
   <si>
     <t>When this prescription is executed, available after start of execution</t>
   </si>
   <si>
-    <t>BeReferralPrescription.treatmentPeriod</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.treatmentValidationEndDate</t>
+    <t>be-model-referralprescription.treatmentPeriod</t>
+  </si>
+  <si>
+    <t>be-model-physiotherapyprescription.treatmentValidationEndDate</t>
   </si>
   <si>
     <t>The latest moment to end this treatment</t>
   </si>
   <si>
-    <t>BeReferralPrescription.treatmentValidationEndDate</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.creationEndDate</t>
+    <t>be-model-referralprescription.treatmentValidationEndDate</t>
+  </si>
+  <si>
+    <t>be-model-physiotherapyprescription.creationEndDate</t>
   </si>
   <si>
     <t>The prescription must have left the draft status before</t>
   </si>
   <si>
-    <t>BeReferralPrescription.creationEndDate</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.intendedPerformer</t>
+    <t>be-model-referralprescription.creationEndDate</t>
+  </si>
+  <si>
+    <t>be-model-physiotherapyprescription.intendedPerformer</t>
   </si>
   <si>
     <t>The intended provider, i.e. who is expected to perform the procedure - a specific person or a speciality</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedPerformer</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.intendedPerformer.id</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.intendedPerformer.extension</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.intendedPerformer.modifierExtension</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.intendedPerformer.performer</t>
+    <t>be-model-referralprescription.intendedPerformer</t>
+  </si>
+  <si>
+    <t>be-model-physiotherapyprescription.intendedPerformer.id</t>
+  </si>
+  <si>
+    <t>be-model-physiotherapyprescription.intendedPerformer.extension</t>
+  </si>
+  <si>
+    <t>be-model-physiotherapyprescription.intendedPerformer.modifierExtension</t>
+  </si>
+  <si>
+    <t>be-model-physiotherapyprescription.intendedPerformer.performer</t>
   </si>
   <si>
     <t>A reference to the provider party (e.g. a NIHDI number for a healthcare professional, a SSIN or only a displaystring for a non professional caregiver,...)</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedPerformer.performer</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.intendedPerformer.discipline</t>
+    <t>be-model-referralprescription.intendedPerformer.performer</t>
+  </si>
+  <si>
+    <t>be-model-physiotherapyprescription.intendedPerformer.discipline</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
@@ -592,91 +582,91 @@
     <t>The required discipline of the provider party</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedPerformer.discipline</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.intendedPerformer.period</t>
+    <t>be-model-referralprescription.intendedPerformer.discipline</t>
+  </si>
+  <si>
+    <t>be-model-physiotherapyprescription.intendedPerformer.period</t>
   </si>
   <si>
     <t>Start and enddate for the particular provider</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedPerformer.period</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.intendedPerformer.organization</t>
+    <t>be-model-referralprescription.intendedPerformer.period</t>
+  </si>
+  <si>
+    <t>be-model-physiotherapyprescription.intendedPerformer.organization</t>
   </si>
   <si>
     <t>Reference to an organization that will add the performer</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedPerformer.organization</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.intendedPerformer.executionPeriod</t>
+    <t>be-model-referralprescription.intendedPerformer.organization</t>
+  </si>
+  <si>
+    <t>be-model-physiotherapyprescription.intendedPerformer.executionPeriod</t>
   </si>
   <si>
     <t>Period in which the caregiver executes the treatment</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedPerformer.executionPeriod</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.intendedPerformer.status</t>
+    <t>be-model-referralprescription.intendedPerformer.executionPeriod</t>
+  </si>
+  <si>
+    <t>be-model-physiotherapyprescription.intendedPerformer.status</t>
   </si>
   <si>
     <t>Status of the action executed by the performer</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedPerformer.status</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.intendedPerformer.statusReason</t>
+    <t>be-model-referralprescription.intendedPerformer.status</t>
+  </si>
+  <si>
+    <t>be-model-physiotherapyprescription.intendedPerformer.statusReason</t>
   </si>
   <si>
     <t>The reason of the status of the action executed by the performer</t>
   </si>
   <si>
-    <t>BeReferralPrescription.intendedPerformer.statusReason</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.serviceRequested</t>
+    <t>be-model-referralprescription.intendedPerformer.statusReason</t>
+  </si>
+  <si>
+    <t>be-model-physiotherapyprescription.serviceRequested</t>
   </si>
   <si>
     <t>What is prescribed</t>
   </si>
   <si>
-    <t>BeReferralPrescription.serviceRequested</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.serviceRequestedDetail</t>
+    <t>be-model-referralprescription.serviceRequested</t>
+  </si>
+  <si>
+    <t>be-model-physiotherapyprescription.serviceRequestedDetail</t>
   </si>
   <si>
     <t>More detailed specification of the prescribed act</t>
   </si>
   <si>
-    <t>BeReferralPrescription.serviceRequestedDetail</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.problemCode</t>
+    <t>be-model-referralprescription.serviceRequestedDetail</t>
+  </si>
+  <si>
+    <t>be-model-physiotherapyprescription.problemCode</t>
   </si>
   <si>
     <t>The problem (code or reference) that is the main reason for this prescription</t>
   </si>
   <si>
-    <t>BeReferralPrescription.problemCode</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.supportingInfo</t>
+    <t>be-model-referralprescription.problemCode</t>
+  </si>
+  <si>
+    <t>be-model-physiotherapyprescription.supportingInfo</t>
   </si>
   <si>
     <t>Care Set Problem</t>
   </si>
   <si>
-    <t>BeReferralPrescription.supportingInfo</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.resultReceiver</t>
+    <t>be-model-referralprescription.supportingInfo</t>
+  </si>
+  <si>
+    <t>be-model-physiotherapyprescription.resultReceiver</t>
   </si>
   <si>
     <t xml:space="preserve">boolean
@@ -686,10 +676,10 @@
     <t>True if the prescriber wants feedback. Other caregivers can be mentioned in the note</t>
   </si>
   <si>
-    <t>BeReferralPrescription.resultReceiver</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.status</t>
+    <t>be-model-referralprescription.resultReceiver</t>
+  </si>
+  <si>
+    <t>be-model-physiotherapyprescription.status</t>
   </si>
   <si>
     <t>Current status</t>
@@ -701,91 +691,91 @@
     <t>http://hl7.org/fhir/ValueSet/request-status</t>
   </si>
   <si>
-    <t>BeReferralPrescription.status</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.statusReason</t>
+    <t>be-model-referralprescription.status</t>
+  </si>
+  <si>
+    <t>be-model-physiotherapyprescription.statusReason</t>
   </si>
   <si>
     <t>Reason current status</t>
   </si>
   <si>
-    <t>BeReferralPrescription.statusReason</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.treatmentStatus</t>
+    <t>be-model-referralprescription.statusReason</t>
+  </si>
+  <si>
+    <t>be-model-physiotherapyprescription.treatmentStatus</t>
   </si>
   <si>
     <t>Status of the treatment</t>
   </si>
   <si>
-    <t>BeReferralPrescription.treatmentStatus</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.treatmentStatusReason</t>
+    <t>be-model-referralprescription.treatmentStatus</t>
+  </si>
+  <si>
+    <t>be-model-physiotherapyprescription.treatmentStatusReason</t>
   </si>
   <si>
     <t>Reason treatment status</t>
   </si>
   <si>
-    <t>BeReferralPrescription.treatmentStatusReason</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.bodyLocation</t>
+    <t>be-model-referralprescription.treatmentStatusReason</t>
+  </si>
+  <si>
+    <t>be-model-physiotherapyprescription.bodyLocation</t>
   </si>
   <si>
     <t>Place where the treatment should be executed</t>
   </si>
   <si>
-    <t>BeReferralPrescription.bodyLocation</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.bodyLocation.id</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.bodyLocation.extension</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.bodyLocation.modifierExtension</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.bodyLocation.bodySite</t>
+    <t>be-model-referralprescription.bodyLocation</t>
+  </si>
+  <si>
+    <t>be-model-physiotherapyprescription.bodyLocation.id</t>
+  </si>
+  <si>
+    <t>be-model-physiotherapyprescription.bodyLocation.extension</t>
+  </si>
+  <si>
+    <t>be-model-physiotherapyprescription.bodyLocation.modifierExtension</t>
+  </si>
+  <si>
+    <t>be-model-physiotherapyprescription.bodyLocation.bodySite</t>
   </si>
   <si>
     <t>Anatomical place where the treatment should be executed</t>
   </si>
   <si>
-    <t>BeReferralPrescription.bodyLocation.bodySite</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.bodyLocation.bodyLaterality</t>
+    <t>be-model-referralprescription.bodyLocation.bodySite</t>
+  </si>
+  <si>
+    <t>be-model-physiotherapyprescription.bodyLocation.bodyLaterality</t>
   </si>
   <si>
     <t>Side of the body</t>
   </si>
   <si>
-    <t>BeReferralPrescription.bodyLocation.bodyLaterality</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.note</t>
+    <t>be-model-referralprescription.bodyLocation.bodyLaterality</t>
+  </si>
+  <si>
+    <t>be-model-physiotherapyprescription.note</t>
   </si>
   <si>
     <t>Additional text notes about the request.</t>
   </si>
   <si>
-    <t>BeReferralPrescription.note</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.prescriptionType</t>
+    <t>be-model-referralprescription.note</t>
+  </si>
+  <si>
+    <t>be-model-physiotherapyprescription.prescriptionType</t>
   </si>
   <si>
     <t>Proposal, Prolongation, Prescription</t>
   </si>
   <si>
-    <t>BeReferralPrescription.prescriptionType</t>
-  </si>
-  <si>
-    <t>BePhysiotherapyPrescription.numberOfSessions</t>
+    <t>be-model-referralprescription.prescriptionType</t>
+  </si>
+  <si>
+    <t>be-model-physiotherapyprescription.numberOfSessions</t>
   </si>
   <si>
     <t xml:space="preserve">integer
@@ -972,7 +962,9 @@
       <c r="A5" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" t="s" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
@@ -1067,7 +1059,7 @@
         <v>27</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -1101,7 +1093,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK55"/>
+  <dimension ref="A1:AK53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1110,8 +1102,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="62.484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="62.484375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="69.5390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="69.5390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -1141,7 +1133,7 @@
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="54.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="61.390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
@@ -1263,36 +1255,36 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="M2" t="s" s="2">
         <v>76</v>
@@ -1300,5543 +1292,5335 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="K3" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="M3" t="s" s="2">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>91</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>71</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="AF9" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AG9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="AK9" t="s" s="2">
-        <v>71</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O10" t="s" s="2">
+        <v>121</v>
+      </c>
       <c r="P10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>79</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>91</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>124</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>126</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>151</v>
+        <v>84</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>102</v>
+        <v>159</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>172</v>
+        <v>101</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>172</v>
+        <v>102</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>173</v>
+        <v>103</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>71</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>175</v>
+        <v>108</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>176</v>
+        <v>114</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>71</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>121</v>
+      </c>
       <c r="P28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>79</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>89</v>
+        <v>178</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>91</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>95</v>
+        <v>179</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>88</v>
+        <v>181</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>122</v>
+        <v>182</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>124</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>125</v>
+        <v>183</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>126</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>102</v>
+        <v>159</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>184</v>
+        <v>84</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>184</v>
+        <v>84</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>184</v>
+        <v>84</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>102</v>
+        <v>212</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="Y41" s="2"/>
       <c r="Z41" t="s" s="2">
-        <v>71</v>
+        <v>218</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="Y43" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Z43" t="s" s="2">
-        <v>221</v>
+        <v>72</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>184</v>
+        <v>95</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>184</v>
+        <v>100</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>230</v>
+        <v>101</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>230</v>
+        <v>102</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>231</v>
+        <v>103</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>71</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>233</v>
+        <v>108</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>234</v>
+        <v>114</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>71</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>121</v>
+      </c>
       <c r="P48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>79</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>88</v>
+        <v>181</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>89</v>
+        <v>236</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>91</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>95</v>
+        <v>237</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>88</v>
+        <v>181</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>122</v>
+        <v>239</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>124</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>125</v>
+        <v>240</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>126</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>151</v>
+        <v>248</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Q54" s="2"/>
-      <c r="R54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Q55" s="2"/>
-      <c r="R55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
